--- a/database/seeders/data/residents.xlsx
+++ b/database/seeders/data/residents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Laravel-11\bims-capstone2\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7086F67-66B6-4BB4-89AB-F7AF8AAABA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6516DAAE-BEF3-412E-BD3D-1E15AC1535D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="285">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -324,13 +324,577 @@
   </si>
   <si>
     <t>ashley jade</t>
+  </si>
+  <si>
+    <t>duldulao</t>
+  </si>
+  <si>
+    <t>orlando</t>
+  </si>
+  <si>
+    <t>self_employed</t>
+  </si>
+  <si>
+    <t>093561006140</t>
+  </si>
+  <si>
+    <t>collecting bottles</t>
+  </si>
+  <si>
+    <t>3865214802517436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">battad </t>
+  </si>
+  <si>
+    <t>raquel</t>
+  </si>
+  <si>
+    <t>09755003971</t>
+  </si>
+  <si>
+    <t>2589320986715729</t>
+  </si>
+  <si>
+    <t>flordeliza</t>
+  </si>
+  <si>
+    <t>francisco</t>
+  </si>
+  <si>
+    <t>farmer</t>
+  </si>
+  <si>
+    <t>6327805825364501</t>
+  </si>
+  <si>
+    <t>avelina</t>
+  </si>
+  <si>
+    <t>avisado</t>
+  </si>
+  <si>
+    <t>gamiao</t>
+  </si>
+  <si>
+    <t>3169720645086718</t>
+  </si>
+  <si>
+    <t>ernesto</t>
+  </si>
+  <si>
+    <t>ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">male </t>
+  </si>
+  <si>
+    <t>furniture maker</t>
+  </si>
+  <si>
+    <t>2062897524579176</t>
+  </si>
+  <si>
+    <t>charito</t>
+  </si>
+  <si>
+    <t>flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reymar </t>
+  </si>
+  <si>
+    <t>allauigan</t>
+  </si>
+  <si>
+    <t>09057412636</t>
+  </si>
+  <si>
+    <t>automotive mechanic</t>
+  </si>
+  <si>
+    <t>6436280985378305</t>
+  </si>
+  <si>
+    <t>charmaine</t>
+  </si>
+  <si>
+    <t>0905782817</t>
+  </si>
+  <si>
+    <t>512416386932784</t>
+  </si>
+  <si>
+    <t>aliah raine</t>
+  </si>
+  <si>
+    <t>christian</t>
+  </si>
+  <si>
+    <t>alejandro</t>
+  </si>
+  <si>
+    <t>maramag</t>
+  </si>
+  <si>
+    <t>gonzalvo</t>
+  </si>
+  <si>
+    <t>09677716128</t>
+  </si>
+  <si>
+    <t>carpenter</t>
+  </si>
+  <si>
+    <t>9018037681569346</t>
+  </si>
+  <si>
+    <t>julia</t>
+  </si>
+  <si>
+    <t>mansibang</t>
+  </si>
+  <si>
+    <t>09532709928</t>
+  </si>
+  <si>
+    <t>5867346913287449</t>
+  </si>
+  <si>
+    <t>littaua</t>
+  </si>
+  <si>
+    <t>gascon</t>
+  </si>
+  <si>
+    <t>johnny</t>
+  </si>
+  <si>
+    <t>famer</t>
+  </si>
+  <si>
+    <t>marivic</t>
+  </si>
+  <si>
+    <t>09550231861</t>
+  </si>
+  <si>
+    <t>laundry washer</t>
+  </si>
+  <si>
+    <t>5193753150682486</t>
+  </si>
+  <si>
+    <t>florient mae</t>
+  </si>
+  <si>
+    <t>shaira mae</t>
+  </si>
+  <si>
+    <t>6093759004865138</t>
+  </si>
+  <si>
+    <t>4290186395745148</t>
+  </si>
+  <si>
+    <t>izek zack</t>
+  </si>
+  <si>
+    <t>03/10/201</t>
+  </si>
+  <si>
+    <t>prime zef adam</t>
+  </si>
+  <si>
+    <t>john marco</t>
+  </si>
+  <si>
+    <t>5723028134671625</t>
+  </si>
+  <si>
+    <t>daphnee</t>
+  </si>
+  <si>
+    <t>3970421831963058</t>
+  </si>
+  <si>
+    <t>mc zaion</t>
+  </si>
+  <si>
+    <t>jayson</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>duque</t>
+  </si>
+  <si>
+    <t>09755281147</t>
+  </si>
+  <si>
+    <t>6359861094706954</t>
+  </si>
+  <si>
+    <t>aurea jane</t>
+  </si>
+  <si>
+    <t>09675521501</t>
+  </si>
+  <si>
+    <t>4029471367198573</t>
+  </si>
+  <si>
+    <t>prinze jay quenzo</t>
+  </si>
+  <si>
+    <t>tolentino</t>
+  </si>
+  <si>
+    <t>pacursa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annabel </t>
+  </si>
+  <si>
+    <t>baby jane</t>
+  </si>
+  <si>
+    <t>09659074498</t>
+  </si>
+  <si>
+    <t>6094190854203623</t>
+  </si>
+  <si>
+    <t>jeremy</t>
+  </si>
+  <si>
+    <t>cacal</t>
+  </si>
+  <si>
+    <t>divina</t>
+  </si>
+  <si>
+    <t>lagmay</t>
+  </si>
+  <si>
+    <t>4801824583593429</t>
+  </si>
+  <si>
+    <t>christopher jay</t>
+  </si>
+  <si>
+    <t>gilmar</t>
+  </si>
+  <si>
+    <t>09154748043</t>
+  </si>
+  <si>
+    <t>franc ian</t>
+  </si>
+  <si>
+    <t>mata</t>
+  </si>
+  <si>
+    <t>delos santos</t>
+  </si>
+  <si>
+    <t>09518811605</t>
+  </si>
+  <si>
+    <t>welder</t>
+  </si>
+  <si>
+    <t>3193741502453405</t>
+  </si>
+  <si>
+    <t>kate</t>
+  </si>
+  <si>
+    <t>09069279574</t>
+  </si>
+  <si>
+    <t>4632794730852381</t>
+  </si>
+  <si>
+    <t>laurice</t>
+  </si>
+  <si>
+    <t>092051881605</t>
+  </si>
+  <si>
+    <t>baysac</t>
+  </si>
+  <si>
+    <t>dante</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>piggery boy</t>
+  </si>
+  <si>
+    <t>4760918326435968</t>
+  </si>
+  <si>
+    <t>analin</t>
+  </si>
+  <si>
+    <t>gamao</t>
+  </si>
+  <si>
+    <t>4586974015795291</t>
+  </si>
+  <si>
+    <t>cristel</t>
+  </si>
+  <si>
+    <t>cristelbaysac@gmail.com</t>
+  </si>
+  <si>
+    <t>2019604706790715</t>
+  </si>
+  <si>
+    <t>cyrille</t>
+  </si>
+  <si>
+    <t>vallejos</t>
+  </si>
+  <si>
+    <t>christina</t>
+  </si>
+  <si>
+    <t>house maid</t>
+  </si>
+  <si>
+    <t>4296037259806482</t>
+  </si>
+  <si>
+    <t>joey</t>
+  </si>
+  <si>
+    <t>jayson anthony</t>
+  </si>
+  <si>
+    <t>driver</t>
+  </si>
+  <si>
+    <t>jenefer</t>
+  </si>
+  <si>
+    <t>asuncion</t>
+  </si>
+  <si>
+    <t>Benito Soliven Isabela</t>
+  </si>
+  <si>
+    <t>ambulant vendor</t>
+  </si>
+  <si>
+    <t>362731856890653</t>
+  </si>
+  <si>
+    <t>precious kyle</t>
+  </si>
+  <si>
+    <t>6237469052047840</t>
+  </si>
+  <si>
+    <t>princess aira</t>
+  </si>
+  <si>
+    <t>quinsay</t>
+  </si>
+  <si>
+    <t>jolan</t>
+  </si>
+  <si>
+    <t>joan</t>
+  </si>
+  <si>
+    <t>4592562834026791</t>
+  </si>
+  <si>
+    <t>adrian</t>
+  </si>
+  <si>
+    <t>2370967908691071</t>
+  </si>
+  <si>
+    <t>mallanao</t>
+  </si>
+  <si>
+    <t>leticia</t>
+  </si>
+  <si>
+    <t>laureta</t>
+  </si>
+  <si>
+    <t>5025415807421704</t>
+  </si>
+  <si>
+    <t>jimmy</t>
+  </si>
+  <si>
+    <t>gasmin</t>
+  </si>
+  <si>
+    <t>09/091965</t>
+  </si>
+  <si>
+    <t>3785691863193576</t>
+  </si>
+  <si>
+    <t>jack mark</t>
+  </si>
+  <si>
+    <t>vellie jhane</t>
+  </si>
+  <si>
+    <t>4230894015746734</t>
+  </si>
+  <si>
+    <t>Francisco</t>
+  </si>
+  <si>
+    <t>remotin</t>
+  </si>
+  <si>
+    <t>junrey</t>
+  </si>
+  <si>
+    <t>4169159639405382</t>
+  </si>
+  <si>
+    <t>andrai jhan</t>
+  </si>
+  <si>
+    <t>cauayan city isabela</t>
+  </si>
+  <si>
+    <t>8702984265368073</t>
+  </si>
+  <si>
+    <t>queypo</t>
+  </si>
+  <si>
+    <t>jhonny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mariano </t>
+  </si>
+  <si>
+    <t>laborer</t>
+  </si>
+  <si>
+    <t>5872602986178219</t>
+  </si>
+  <si>
+    <t>monica</t>
+  </si>
+  <si>
+    <t>house wife</t>
+  </si>
+  <si>
+    <t>3842309365214815</t>
+  </si>
+  <si>
+    <t>mark jhon</t>
+  </si>
+  <si>
+    <t>4597419370361049</t>
+  </si>
+  <si>
+    <t>maryvic</t>
+  </si>
+  <si>
+    <t>domestic helper</t>
+  </si>
+  <si>
+    <t>marianne</t>
+  </si>
+  <si>
+    <t>mariannmaeduldulao@gmail.com</t>
+  </si>
+  <si>
+    <t>alde</t>
+  </si>
+  <si>
+    <t>krisha</t>
+  </si>
+  <si>
+    <t>krishamaealde14@gmail.com</t>
+  </si>
+  <si>
+    <t>9857240892194128</t>
+  </si>
+  <si>
+    <t>rodel</t>
+  </si>
+  <si>
+    <t>rodelalde02@gmail.com</t>
+  </si>
+  <si>
+    <t>8426804756405912</t>
+  </si>
+  <si>
+    <t>rayandayan</t>
+  </si>
+  <si>
+    <t>joel</t>
+  </si>
+  <si>
+    <t>2701859760487457</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>domingo</t>
+  </si>
+  <si>
+    <t>6180235714267013</t>
+  </si>
+  <si>
+    <t>joyce</t>
+  </si>
+  <si>
+    <t>2478037548341385</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> joe jorge</t>
+  </si>
+  <si>
+    <t>4587925324037596</t>
+  </si>
+  <si>
+    <t>regino</t>
+  </si>
+  <si>
+    <t>maribel</t>
+  </si>
+  <si>
+    <t>ramos</t>
+  </si>
+  <si>
+    <t>unice marie</t>
+  </si>
+  <si>
+    <t>0/15/2005</t>
+  </si>
+  <si>
+    <t>unicemarielaureta@gmail.com</t>
+  </si>
+  <si>
+    <t>Jr.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +920,14 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -402,10 +974,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,8 +1007,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -739,10 +1317,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AD86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,13 +1330,13 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.140625" bestFit="1" customWidth="1"/>
@@ -815,7 +1393,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -901,7 +1479,7 @@
       <c r="M2" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2" s="12">
         <v>9459656936</v>
       </c>
       <c r="O2" s="7" t="s">
@@ -966,7 +1544,7 @@
       <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="12">
         <v>9859207761</v>
       </c>
       <c r="P3" s="6">
@@ -1122,7 +1700,7 @@
       <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="12">
         <v>9957102078</v>
       </c>
       <c r="O6" s="7" t="s">
@@ -1320,7 +1898,7 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -1373,7 +1951,7 @@
         <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
         <v>46</v>
@@ -1426,7 +2004,7 @@
         <v>77</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>46</v>
@@ -1452,7 +2030,7 @@
       <c r="M12" t="s">
         <v>38</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="12">
         <v>9675521490</v>
       </c>
       <c r="P12" s="6">
@@ -1485,7 +2063,7 @@
         <v>77</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="F13" t="s">
         <v>46</v>
@@ -1511,7 +2089,7 @@
       <c r="M13" t="s">
         <v>38</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13" s="12">
         <v>9659529591</v>
       </c>
       <c r="P13" s="6">
@@ -1564,7 +2142,7 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="12">
         <v>9359918422</v>
       </c>
       <c r="P14" s="6">
@@ -1676,7 +2254,7 @@
       <c r="M16" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="12">
         <v>9536730432</v>
       </c>
       <c r="P16" s="6">
@@ -1797,7 +2375,7 @@
       <c r="M18" t="s">
         <v>38</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="12">
         <v>9655419849</v>
       </c>
       <c r="O18" s="7" t="s">
@@ -1872,10 +2450,3822 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="11">
+        <v>23492</v>
+      </c>
+      <c r="I20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+      <c r="L20" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P20" s="6">
+        <v>3</v>
+      </c>
+      <c r="S20" s="8">
+        <v>16</v>
+      </c>
+      <c r="T20" s="8">
+        <v>1</v>
+      </c>
+      <c r="U20" s="8">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
+        <v>101</v>
+      </c>
+      <c r="W20" t="s">
+        <v>52</v>
+      </c>
+      <c r="X20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="11">
+        <v>25910</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>62</v>
+      </c>
+      <c r="K21" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="6">
+        <v>3</v>
+      </c>
+      <c r="S21" s="8">
+        <v>16</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="U21" s="8">
+        <v>0</v>
+      </c>
+      <c r="V21" t="s">
+        <v>48</v>
+      </c>
+      <c r="W21" t="s">
+        <v>52</v>
+      </c>
+      <c r="X21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="11">
+        <v>19013</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+      <c r="L22" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="6">
+        <v>3</v>
+      </c>
+      <c r="S22" s="8">
+        <v>17</v>
+      </c>
+      <c r="T22" s="8">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8">
+        <v>0</v>
+      </c>
+      <c r="V22" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" t="s">
+        <v>52</v>
+      </c>
+      <c r="X22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="11">
+        <v>18773</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" s="6">
+        <v>3</v>
+      </c>
+      <c r="S23" s="8">
+        <v>17</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8">
+        <v>0</v>
+      </c>
+      <c r="V23" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="11">
+        <v>21538</v>
+      </c>
+      <c r="I24" t="s">
+        <v>34</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+      <c r="L24" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="6">
+        <v>3</v>
+      </c>
+      <c r="S24" s="8">
+        <v>18</v>
+      </c>
+      <c r="T24" s="8">
+        <v>1</v>
+      </c>
+      <c r="U24" s="8">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
+        <v>118</v>
+      </c>
+      <c r="W24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="11">
+        <v>32488</v>
+      </c>
+      <c r="I25" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+      <c r="L25" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" t="s">
+        <v>131</v>
+      </c>
+      <c r="P25" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="S25" s="8">
+        <v>18</v>
+      </c>
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>118</v>
+      </c>
+      <c r="W25" t="s">
+        <v>52</v>
+      </c>
+      <c r="X25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="11">
+        <v>33773</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" t="s">
+        <v>62</v>
+      </c>
+      <c r="K26" t="s">
+        <v>36</v>
+      </c>
+      <c r="L26" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" t="s">
+        <v>131</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" s="6">
+        <v>3</v>
+      </c>
+      <c r="S26" s="8">
+        <v>18</v>
+      </c>
+      <c r="T26" s="8">
+        <v>0</v>
+      </c>
+      <c r="U26" s="8">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
+        <v>125</v>
+      </c>
+      <c r="W26" t="s">
+        <v>41</v>
+      </c>
+      <c r="X26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="11">
+        <v>34223</v>
+      </c>
+      <c r="I27" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+      <c r="K27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L27" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" t="s">
+        <v>131</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="6">
+        <v>3</v>
+      </c>
+      <c r="S27" s="8">
+        <v>18</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>48</v>
+      </c>
+      <c r="W27" t="s">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="11">
+        <v>44409</v>
+      </c>
+      <c r="I28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K28" t="s">
+        <v>54</v>
+      </c>
+      <c r="L28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" s="6">
+        <v>3</v>
+      </c>
+      <c r="S28" s="8">
+        <v>18</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="U28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="11">
+        <v>22521</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K29" t="s">
+        <v>36</v>
+      </c>
+      <c r="L29" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="P29" s="6">
+        <v>3</v>
+      </c>
+      <c r="S29" s="8">
+        <v>19</v>
+      </c>
+      <c r="T29" s="8">
+        <v>1</v>
+      </c>
+      <c r="U29" s="8">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
+        <v>136</v>
+      </c>
+      <c r="W29" t="s">
+        <v>70</v>
+      </c>
+      <c r="X29" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="11">
+        <v>22968</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30" t="s">
+        <v>47</v>
+      </c>
+      <c r="L30" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30" s="6">
+        <v>3</v>
+      </c>
+      <c r="S30" s="8">
+        <v>19</v>
+      </c>
+      <c r="T30" s="8">
+        <v>0</v>
+      </c>
+      <c r="U30" s="8">
+        <v>0</v>
+      </c>
+      <c r="V30" t="s">
+        <v>48</v>
+      </c>
+      <c r="W30" t="s">
+        <v>52</v>
+      </c>
+      <c r="X30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="11">
+        <v>27122</v>
+      </c>
+      <c r="I31" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+      <c r="P31" s="6">
+        <v>3</v>
+      </c>
+      <c r="S31" s="8">
+        <v>20</v>
+      </c>
+      <c r="T31" s="8">
+        <v>1</v>
+      </c>
+      <c r="U31" s="8">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>145</v>
+      </c>
+      <c r="W31" t="s">
+        <v>52</v>
+      </c>
+      <c r="X31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" s="11">
+        <v>30194</v>
+      </c>
+      <c r="I32" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="6">
+        <v>3</v>
+      </c>
+      <c r="S32" s="8">
+        <v>20</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="U32" s="8">
+        <v>0</v>
+      </c>
+      <c r="V32" t="s">
+        <v>148</v>
+      </c>
+      <c r="W32" t="s">
+        <v>52</v>
+      </c>
+      <c r="X32" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" t="str">
+        <f>F33</f>
+        <v>female</v>
+      </c>
+      <c r="H33" s="11">
+        <v>38826</v>
+      </c>
+      <c r="I33" t="s">
+        <v>34</v>
+      </c>
+      <c r="J33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P33" s="6">
+        <v>3</v>
+      </c>
+      <c r="S33" s="8">
+        <v>20</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="U33" s="8">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>70</v>
+      </c>
+      <c r="X33" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ref="G34:G52" si="0">F34</f>
+        <v>female</v>
+      </c>
+      <c r="H34" s="11">
+        <v>39710</v>
+      </c>
+      <c r="I34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P34" s="6">
+        <v>3</v>
+      </c>
+      <c r="S34" s="8">
+        <v>20</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="U34" s="8">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" t="s">
+        <v>142</v>
+      </c>
+      <c r="F35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" t="s">
+        <v>38</v>
+      </c>
+      <c r="P35" s="6">
+        <v>3</v>
+      </c>
+      <c r="S35" s="8">
+        <v>20</v>
+      </c>
+      <c r="T35" s="8">
+        <v>0</v>
+      </c>
+      <c r="U35" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H36" s="11">
+        <v>42985</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" t="s">
+        <v>35</v>
+      </c>
+      <c r="K36" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P36" s="6">
+        <v>3</v>
+      </c>
+      <c r="S36" s="8">
+        <v>20</v>
+      </c>
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="U36" s="8">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="11">
+        <v>40778</v>
+      </c>
+      <c r="I37" t="s">
+        <v>34</v>
+      </c>
+      <c r="J37" t="s">
+        <v>35</v>
+      </c>
+      <c r="K37" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" t="s">
+        <v>38</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P37" s="6">
+        <v>3</v>
+      </c>
+      <c r="S37" s="8">
+        <v>20</v>
+      </c>
+      <c r="T37" s="8">
+        <v>0</v>
+      </c>
+      <c r="U37" s="8">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>52</v>
+      </c>
+      <c r="X37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H38" s="11">
+        <v>41613</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J38" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="P38" s="6">
+        <v>3</v>
+      </c>
+      <c r="S38" s="8">
+        <v>20</v>
+      </c>
+      <c r="T38" s="8">
+        <v>0</v>
+      </c>
+      <c r="U38" s="8">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD38" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H39" s="11">
+        <v>44687</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" t="s">
+        <v>35</v>
+      </c>
+      <c r="K39" t="s">
+        <v>54</v>
+      </c>
+      <c r="L39" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" t="s">
+        <v>38</v>
+      </c>
+      <c r="P39" s="6">
+        <v>3</v>
+      </c>
+      <c r="S39" s="8">
+        <v>20</v>
+      </c>
+      <c r="T39" s="8">
+        <v>0</v>
+      </c>
+      <c r="U39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H40" s="11">
+        <v>33016</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" t="s">
+        <v>36</v>
+      </c>
+      <c r="L40" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" t="s">
+        <v>38</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="P40" s="6">
+        <v>3</v>
+      </c>
+      <c r="S40" s="8">
+        <v>21</v>
+      </c>
+      <c r="T40" s="8">
+        <v>1</v>
+      </c>
+      <c r="U40" s="8">
+        <v>1</v>
+      </c>
+      <c r="V40" t="s">
+        <v>89</v>
+      </c>
+      <c r="W40" t="s">
+        <v>52</v>
+      </c>
+      <c r="X40" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+      <c r="F41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H41" s="11">
+        <v>35545</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+      <c r="K41" t="s">
+        <v>47</v>
+      </c>
+      <c r="L41" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="P41" s="6">
+        <v>3</v>
+      </c>
+      <c r="S41" s="8">
+        <v>21</v>
+      </c>
+      <c r="T41" s="8">
+        <v>0</v>
+      </c>
+      <c r="U41" s="8">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>48</v>
+      </c>
+      <c r="W41" t="s">
+        <v>70</v>
+      </c>
+      <c r="X41" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="F42" t="s">
+        <v>33</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H42" s="11">
+        <v>42147</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J42" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" t="s">
+        <v>38</v>
+      </c>
+      <c r="P42" s="6">
+        <v>3</v>
+      </c>
+      <c r="S42" s="8">
+        <v>21</v>
+      </c>
+      <c r="T42" s="8">
+        <v>0</v>
+      </c>
+      <c r="U42" s="8">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H43" s="11">
+        <v>25366</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" t="s">
+        <v>35</v>
+      </c>
+      <c r="K43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L43" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" t="s">
+        <v>38</v>
+      </c>
+      <c r="P43" s="6">
+        <v>3</v>
+      </c>
+      <c r="S43" s="8">
+        <v>22</v>
+      </c>
+      <c r="T43" s="8">
+        <v>1</v>
+      </c>
+      <c r="U43" s="8">
+        <v>1</v>
+      </c>
+      <c r="V43" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" t="s">
+        <v>52</v>
+      </c>
+      <c r="X43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>174</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" t="s">
+        <v>46</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H44" s="11">
+        <v>39539</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" t="s">
+        <v>38</v>
+      </c>
+      <c r="P44" s="6">
+        <v>3</v>
+      </c>
+      <c r="S44" s="8">
+        <v>22</v>
+      </c>
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="U44" s="8">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s">
+        <v>46</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H45" s="11">
+        <v>23166</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45" t="s">
+        <v>62</v>
+      </c>
+      <c r="K45" t="s">
+        <v>47</v>
+      </c>
+      <c r="L45" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" t="s">
+        <v>38</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P45" s="6">
+        <v>3</v>
+      </c>
+      <c r="S45" s="8">
+        <v>23</v>
+      </c>
+      <c r="T45" s="8">
+        <v>1</v>
+      </c>
+      <c r="U45" s="8">
+        <v>1</v>
+      </c>
+      <c r="V45" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H46" s="11">
+        <v>37946</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J46" t="s">
+        <v>35</v>
+      </c>
+      <c r="K46" t="s">
+        <v>47</v>
+      </c>
+      <c r="L46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" t="s">
+        <v>38</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P46" s="6">
+        <v>3</v>
+      </c>
+      <c r="S46" s="8">
+        <v>23</v>
+      </c>
+      <c r="T46" s="8">
+        <v>0</v>
+      </c>
+      <c r="U46" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" t="s">
+        <v>178</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H47" s="11">
+        <v>37787</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+      <c r="J47" t="s">
+        <v>35</v>
+      </c>
+      <c r="K47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" t="s">
+        <v>38</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P47" s="8">
+        <v>3</v>
+      </c>
+      <c r="S47" s="8">
+        <v>23</v>
+      </c>
+      <c r="T47" s="8">
+        <v>0</v>
+      </c>
+      <c r="U47" s="8">
+        <v>0</v>
+      </c>
+      <c r="V47" t="s">
+        <v>48</v>
+      </c>
+      <c r="W47" t="s">
+        <v>70</v>
+      </c>
+      <c r="X47" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H48" s="11">
+        <v>43632</v>
+      </c>
+      <c r="I48" t="s">
+        <v>34</v>
+      </c>
+      <c r="J48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48" t="s">
+        <v>54</v>
+      </c>
+      <c r="L48" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" t="s">
+        <v>38</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="P48" s="8">
+        <v>3</v>
+      </c>
+      <c r="S48" s="8">
+        <v>23</v>
+      </c>
+      <c r="T48" s="8">
+        <v>0</v>
+      </c>
+      <c r="U48" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>183</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H49" s="11">
+        <v>35123</v>
+      </c>
+      <c r="I49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" t="s">
+        <v>36</v>
+      </c>
+      <c r="L49" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" t="s">
+        <v>38</v>
+      </c>
+      <c r="N49" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="P49" s="8">
+        <v>3</v>
+      </c>
+      <c r="S49" s="8">
+        <v>23</v>
+      </c>
+      <c r="T49" s="8">
+        <v>0</v>
+      </c>
+      <c r="U49" s="8">
+        <v>0</v>
+      </c>
+      <c r="V49" t="s">
+        <v>89</v>
+      </c>
+      <c r="W49" t="s">
+        <v>52</v>
+      </c>
+      <c r="X49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>185</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>male</v>
+      </c>
+      <c r="H50" s="11">
+        <v>35675</v>
+      </c>
+      <c r="I50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s">
+        <v>35</v>
+      </c>
+      <c r="K50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" t="s">
+        <v>38</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="P50" s="8">
+        <v>3</v>
+      </c>
+      <c r="S50" s="8">
+        <v>24</v>
+      </c>
+      <c r="T50" s="8">
+        <v>1</v>
+      </c>
+      <c r="U50" s="8">
+        <v>1</v>
+      </c>
+      <c r="V50" t="s">
+        <v>189</v>
+      </c>
+      <c r="W50" t="s">
+        <v>70</v>
+      </c>
+      <c r="X50" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H51" s="11">
+        <v>37279</v>
+      </c>
+      <c r="I51" t="s">
+        <v>34</v>
+      </c>
+      <c r="J51" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" t="s">
+        <v>47</v>
+      </c>
+      <c r="L51" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" t="s">
+        <v>38</v>
+      </c>
+      <c r="N51" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="P51" s="8">
+        <v>3</v>
+      </c>
+      <c r="S51" s="8">
+        <v>24</v>
+      </c>
+      <c r="T51" s="8">
+        <v>0</v>
+      </c>
+      <c r="U51" s="8">
+        <v>0</v>
+      </c>
+      <c r="V51" t="s">
+        <v>48</v>
+      </c>
+      <c r="W51" t="s">
+        <v>41</v>
+      </c>
+      <c r="X51" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD51" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>194</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>187</v>
+      </c>
+      <c r="F52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>female</v>
+      </c>
+      <c r="H52" s="11">
+        <v>42922</v>
+      </c>
+      <c r="I52" t="s">
+        <v>34</v>
+      </c>
+      <c r="J52" t="s">
+        <v>35</v>
+      </c>
+      <c r="K52" t="s">
+        <v>51</v>
+      </c>
+      <c r="L52" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+      <c r="N52" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="P52" s="8">
+        <v>3</v>
+      </c>
+      <c r="S52" s="8">
+        <v>24</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="U52" s="8">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53" t="s">
+        <v>33</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" s="11">
+        <v>28625</v>
+      </c>
+      <c r="I53" t="s">
+        <v>34</v>
+      </c>
+      <c r="J53" t="s">
+        <v>62</v>
+      </c>
+      <c r="K53" t="s">
+        <v>47</v>
+      </c>
+      <c r="L53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+      <c r="N53" s="8"/>
+      <c r="P53" s="6">
+        <v>3</v>
+      </c>
+      <c r="S53" s="8">
+        <v>7</v>
+      </c>
+      <c r="T53" s="8">
+        <v>1</v>
+      </c>
+      <c r="U53" s="8">
+        <v>1</v>
+      </c>
+      <c r="V53" t="s">
+        <v>199</v>
+      </c>
+      <c r="W53" t="s">
+        <v>52</v>
+      </c>
+      <c r="X53" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD53" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" t="s">
+        <v>202</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" s="11">
+        <v>31290</v>
+      </c>
+      <c r="I54" t="s">
+        <v>34</v>
+      </c>
+      <c r="J54" t="s">
+        <v>62</v>
+      </c>
+      <c r="K54" t="s">
+        <v>47</v>
+      </c>
+      <c r="L54" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" t="s">
+        <v>38</v>
+      </c>
+      <c r="N54" s="8"/>
+      <c r="P54" s="6">
+        <v>3</v>
+      </c>
+      <c r="S54" s="8">
+        <v>7</v>
+      </c>
+      <c r="T54" s="8">
+        <v>0</v>
+      </c>
+      <c r="U54" s="8">
+        <v>0</v>
+      </c>
+      <c r="V54" t="s">
+        <v>48</v>
+      </c>
+      <c r="W54" t="s">
+        <v>70</v>
+      </c>
+      <c r="X54" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD54" s="9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" s="11">
+        <v>38497</v>
+      </c>
+      <c r="I55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" t="s">
+        <v>51</v>
+      </c>
+      <c r="L55" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+      <c r="N55" s="8"/>
+      <c r="O55" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="P55" s="6">
+        <v>3</v>
+      </c>
+      <c r="S55" s="8">
+        <v>7</v>
+      </c>
+      <c r="T55" s="8">
+        <v>0</v>
+      </c>
+      <c r="U55" s="8">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD55" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="F56" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" s="11">
+        <v>43207</v>
+      </c>
+      <c r="I56" t="s">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>35</v>
+      </c>
+      <c r="K56" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" t="s">
+        <v>38</v>
+      </c>
+      <c r="N56" s="8"/>
+      <c r="P56" s="6">
+        <v>3</v>
+      </c>
+      <c r="S56" s="8">
+        <v>7</v>
+      </c>
+      <c r="T56" s="8">
+        <v>0</v>
+      </c>
+      <c r="U56" s="8">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>208</v>
+      </c>
+      <c r="B57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" t="s">
+        <v>46</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="11">
+        <v>20661</v>
+      </c>
+      <c r="I57" t="s">
+        <v>34</v>
+      </c>
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+      <c r="K57" t="s">
+        <v>47</v>
+      </c>
+      <c r="L57" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+      <c r="N57" s="8"/>
+      <c r="P57" s="6">
+        <v>3</v>
+      </c>
+      <c r="S57" s="8">
+        <v>8</v>
+      </c>
+      <c r="T57" s="8">
+        <v>1</v>
+      </c>
+      <c r="U57" s="8">
+        <v>1</v>
+      </c>
+      <c r="V57" t="s">
+        <v>210</v>
+      </c>
+      <c r="W57" t="s">
+        <v>52</v>
+      </c>
+      <c r="X57" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD57" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" s="11">
+        <v>29378</v>
+      </c>
+      <c r="I58" t="s">
+        <v>34</v>
+      </c>
+      <c r="J58" t="s">
+        <v>62</v>
+      </c>
+      <c r="K58" t="s">
+        <v>47</v>
+      </c>
+      <c r="L58" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" t="s">
+        <v>38</v>
+      </c>
+      <c r="N58" s="8"/>
+      <c r="P58" s="6">
+        <v>3</v>
+      </c>
+      <c r="S58" s="8">
+        <v>8</v>
+      </c>
+      <c r="T58" s="8">
+        <v>0</v>
+      </c>
+      <c r="U58" s="8">
+        <v>0</v>
+      </c>
+      <c r="V58" t="s">
+        <v>89</v>
+      </c>
+      <c r="W58" t="s">
+        <v>52</v>
+      </c>
+      <c r="X58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" t="s">
+        <v>33</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" s="11">
+        <v>32672</v>
+      </c>
+      <c r="I59" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" t="s">
+        <v>62</v>
+      </c>
+      <c r="K59" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
+        <v>38</v>
+      </c>
+      <c r="N59" s="8"/>
+      <c r="P59" s="6">
+        <v>3</v>
+      </c>
+      <c r="S59" s="8">
+        <v>9</v>
+      </c>
+      <c r="T59" s="8">
+        <v>1</v>
+      </c>
+      <c r="U59" s="8">
+        <v>1</v>
+      </c>
+      <c r="V59" t="s">
+        <v>214</v>
+      </c>
+      <c r="W59" t="s">
+        <v>52</v>
+      </c>
+      <c r="X59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" s="11">
+        <v>33266</v>
+      </c>
+      <c r="I60" t="s">
+        <v>217</v>
+      </c>
+      <c r="J60" t="s">
+        <v>62</v>
+      </c>
+      <c r="K60" t="s">
+        <v>99</v>
+      </c>
+      <c r="L60" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60" t="s">
+        <v>38</v>
+      </c>
+      <c r="N60" s="8"/>
+      <c r="P60" s="6">
+        <v>3</v>
+      </c>
+      <c r="S60" s="8">
+        <v>9</v>
+      </c>
+      <c r="T60" s="8">
+        <v>0</v>
+      </c>
+      <c r="U60" s="8">
+        <v>0</v>
+      </c>
+      <c r="V60" t="s">
+        <v>218</v>
+      </c>
+      <c r="W60" t="s">
+        <v>70</v>
+      </c>
+      <c r="X60" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" t="s">
+        <v>220</v>
+      </c>
+      <c r="C61" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" t="s">
+        <v>46</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" s="11">
+        <v>40933</v>
+      </c>
+      <c r="I61" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" t="s">
+        <v>35</v>
+      </c>
+      <c r="K61" t="s">
+        <v>51</v>
+      </c>
+      <c r="L61" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61" t="s">
+        <v>38</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="P61" s="6">
+        <v>3</v>
+      </c>
+      <c r="S61" s="8">
+        <v>9</v>
+      </c>
+      <c r="T61" s="8">
+        <v>0</v>
+      </c>
+      <c r="U61" s="8">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD61" s="9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" t="s">
+        <v>216</v>
+      </c>
+      <c r="F62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" s="11">
+        <v>43195</v>
+      </c>
+      <c r="I62" t="s">
+        <v>34</v>
+      </c>
+      <c r="J62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K62" t="s">
+        <v>51</v>
+      </c>
+      <c r="L62" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62" t="s">
+        <v>38</v>
+      </c>
+      <c r="N62" s="8"/>
+      <c r="P62" s="6">
+        <v>3</v>
+      </c>
+      <c r="S62" s="8">
+        <v>9</v>
+      </c>
+      <c r="T62" s="8">
+        <v>0</v>
+      </c>
+      <c r="U62" s="8">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" t="s">
+        <v>33</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" s="11">
+        <v>33772</v>
+      </c>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+      <c r="J63" t="s">
+        <v>35</v>
+      </c>
+      <c r="K63" t="s">
+        <v>47</v>
+      </c>
+      <c r="L63" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" t="s">
+        <v>38</v>
+      </c>
+      <c r="N63" s="8"/>
+      <c r="P63" s="6">
+        <v>3</v>
+      </c>
+      <c r="S63" s="8">
+        <v>10</v>
+      </c>
+      <c r="T63" s="8">
+        <v>1</v>
+      </c>
+      <c r="U63" s="8">
+        <v>1</v>
+      </c>
+      <c r="V63" t="s">
+        <v>89</v>
+      </c>
+      <c r="W63" t="s">
+        <v>52</v>
+      </c>
+      <c r="X63" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="11">
+        <v>33845</v>
+      </c>
+      <c r="I64" t="s">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>35</v>
+      </c>
+      <c r="K64" t="s">
+        <v>47</v>
+      </c>
+      <c r="L64" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" t="s">
+        <v>38</v>
+      </c>
+      <c r="N64" s="8"/>
+      <c r="P64" s="6">
+        <v>3</v>
+      </c>
+      <c r="S64" s="8">
+        <v>10</v>
+      </c>
+      <c r="T64" s="8">
+        <v>0</v>
+      </c>
+      <c r="U64" s="8">
+        <v>0</v>
+      </c>
+      <c r="V64" t="s">
+        <v>48</v>
+      </c>
+      <c r="W64" t="s">
+        <v>70</v>
+      </c>
+      <c r="X64" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD64" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>223</v>
+      </c>
+      <c r="B65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" t="s">
+        <v>143</v>
+      </c>
+      <c r="F65" t="s">
+        <v>33</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="11">
+        <v>42167</v>
+      </c>
+      <c r="I65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
+        <v>35</v>
+      </c>
+      <c r="K65" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+      <c r="N65" s="8"/>
+      <c r="P65" s="6">
+        <v>3</v>
+      </c>
+      <c r="S65" s="8">
+        <v>10</v>
+      </c>
+      <c r="T65" s="8">
+        <v>0</v>
+      </c>
+      <c r="U65" s="8">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD65" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="11">
+        <v>24727</v>
+      </c>
+      <c r="I66" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s">
+        <v>62</v>
+      </c>
+      <c r="K66" t="s">
+        <v>47</v>
+      </c>
+      <c r="L66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66" t="s">
+        <v>38</v>
+      </c>
+      <c r="N66" s="8"/>
+      <c r="P66" s="6">
+        <v>3</v>
+      </c>
+      <c r="S66" s="8">
+        <v>11</v>
+      </c>
+      <c r="T66" s="8">
+        <v>0</v>
+      </c>
+      <c r="U66" s="8">
+        <v>0</v>
+      </c>
+      <c r="V66" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD66" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>229</v>
+      </c>
+      <c r="B67" t="s">
+        <v>233</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
+        <v>33</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I67" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" t="s">
+        <v>47</v>
+      </c>
+      <c r="L67" t="s">
+        <v>37</v>
+      </c>
+      <c r="M67" t="s">
+        <v>38</v>
+      </c>
+      <c r="N67" s="8"/>
+      <c r="P67" s="6">
+        <v>3</v>
+      </c>
+      <c r="S67" s="8">
+        <v>11</v>
+      </c>
+      <c r="T67" s="8">
+        <v>1</v>
+      </c>
+      <c r="U67" s="8">
+        <v>1</v>
+      </c>
+      <c r="V67" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD67" s="9" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>229</v>
+      </c>
+      <c r="B68" t="s">
+        <v>237</v>
+      </c>
+      <c r="C68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
+        <v>33</v>
+      </c>
+      <c r="H68" s="11">
+        <v>37115</v>
+      </c>
+      <c r="I68" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s">
+        <v>35</v>
+      </c>
+      <c r="K68" t="s">
+        <v>51</v>
+      </c>
+      <c r="L68" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
+      </c>
+      <c r="N68" s="8"/>
+      <c r="P68" s="6">
+        <v>3</v>
+      </c>
+      <c r="S68" s="8">
+        <v>11</v>
+      </c>
+      <c r="T68" s="8">
+        <v>0</v>
+      </c>
+      <c r="U68" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" t="s">
+        <v>46</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" s="11">
+        <v>39860</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
+      </c>
+      <c r="J69" t="s">
+        <v>35</v>
+      </c>
+      <c r="K69" t="s">
+        <v>51</v>
+      </c>
+      <c r="L69" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" t="s">
+        <v>38</v>
+      </c>
+      <c r="N69" s="8"/>
+      <c r="P69" s="6">
+        <v>3</v>
+      </c>
+      <c r="S69" s="8">
+        <v>11</v>
+      </c>
+      <c r="T69" s="8">
+        <v>0</v>
+      </c>
+      <c r="U69" s="8">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD69" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>231</v>
+      </c>
+      <c r="B70" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="11">
+        <v>29949</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+      <c r="J70" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" t="s">
+        <v>38</v>
+      </c>
+      <c r="N70" s="8"/>
+      <c r="P70" s="6">
+        <v>3</v>
+      </c>
+      <c r="S70" s="8">
+        <v>11</v>
+      </c>
+      <c r="T70" s="8">
+        <v>0</v>
+      </c>
+      <c r="U70" s="8">
+        <v>0</v>
+      </c>
+      <c r="V70" t="s">
+        <v>89</v>
+      </c>
+      <c r="W70" t="s">
+        <v>52</v>
+      </c>
+      <c r="X70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>241</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" s="11">
+        <v>42605</v>
+      </c>
+      <c r="I71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J71" t="s">
+        <v>35</v>
+      </c>
+      <c r="K71" t="s">
+        <v>51</v>
+      </c>
+      <c r="L71" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" t="s">
+        <v>38</v>
+      </c>
+      <c r="N71" s="8"/>
+      <c r="P71" s="6">
+        <v>3</v>
+      </c>
+      <c r="S71" s="8">
+        <v>11</v>
+      </c>
+      <c r="T71" s="8">
+        <v>0</v>
+      </c>
+      <c r="U71" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>241</v>
+      </c>
+      <c r="B72" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
+        <v>33</v>
+      </c>
+      <c r="H72" s="11">
+        <v>41505</v>
+      </c>
+      <c r="I72" t="s">
+        <v>245</v>
+      </c>
+      <c r="J72" t="s">
+        <v>35</v>
+      </c>
+      <c r="K72" t="s">
+        <v>51</v>
+      </c>
+      <c r="L72" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72" t="s">
+        <v>38</v>
+      </c>
+      <c r="N72" s="8"/>
+      <c r="P72" s="6">
+        <v>3</v>
+      </c>
+      <c r="S72" s="8">
+        <v>11</v>
+      </c>
+      <c r="T72" s="8">
+        <v>0</v>
+      </c>
+      <c r="U72" s="8">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD72" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>33</v>
+      </c>
+      <c r="H73" s="11">
+        <v>23510</v>
+      </c>
+      <c r="I73" t="s">
+        <v>34</v>
+      </c>
+      <c r="J73" t="s">
+        <v>62</v>
+      </c>
+      <c r="K73" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" t="s">
+        <v>38</v>
+      </c>
+      <c r="N73" s="8"/>
+      <c r="P73" s="6">
+        <v>3</v>
+      </c>
+      <c r="S73" s="8">
+        <v>12</v>
+      </c>
+      <c r="T73" s="8">
+        <v>1</v>
+      </c>
+      <c r="U73" s="8">
+        <v>1</v>
+      </c>
+      <c r="V73" t="s">
+        <v>250</v>
+      </c>
+      <c r="W73" t="s">
+        <v>52</v>
+      </c>
+      <c r="X73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD73" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>247</v>
+      </c>
+      <c r="B74" t="s">
+        <v>252</v>
+      </c>
+      <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" s="11">
+        <v>25692</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>62</v>
+      </c>
+      <c r="K74" t="s">
+        <v>47</v>
+      </c>
+      <c r="L74" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" t="s">
+        <v>38</v>
+      </c>
+      <c r="N74" s="8"/>
+      <c r="P74" s="6">
+        <v>3</v>
+      </c>
+      <c r="S74" s="8">
+        <v>12</v>
+      </c>
+      <c r="T74" s="8">
+        <v>0</v>
+      </c>
+      <c r="U74" s="8">
+        <v>0</v>
+      </c>
+      <c r="V74" t="s">
+        <v>253</v>
+      </c>
+      <c r="W74" t="s">
+        <v>52</v>
+      </c>
+      <c r="X74" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD74" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H75" s="11">
+        <v>40216</v>
+      </c>
+      <c r="I75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" t="s">
+        <v>35</v>
+      </c>
+      <c r="K75" t="s">
+        <v>51</v>
+      </c>
+      <c r="L75" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75" t="s">
+        <v>38</v>
+      </c>
+      <c r="N75" s="8"/>
+      <c r="P75" s="6">
+        <v>3</v>
+      </c>
+      <c r="S75" s="8">
+        <v>12</v>
+      </c>
+      <c r="T75" s="8">
+        <v>0</v>
+      </c>
+      <c r="U75" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" s="11">
+        <v>25992</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" t="s">
+        <v>62</v>
+      </c>
+      <c r="K76" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" t="s">
+        <v>37</v>
+      </c>
+      <c r="M76" t="s">
+        <v>38</v>
+      </c>
+      <c r="N76" s="8"/>
+      <c r="P76" s="6">
+        <v>3</v>
+      </c>
+      <c r="S76" s="8">
+        <v>13</v>
+      </c>
+      <c r="T76" s="8">
+        <v>1</v>
+      </c>
+      <c r="U76" s="8">
+        <v>1</v>
+      </c>
+      <c r="V76" t="s">
+        <v>258</v>
+      </c>
+      <c r="W76" t="s">
+        <v>70</v>
+      </c>
+      <c r="X76" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" t="s">
+        <v>46</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" s="11">
+        <v>37629</v>
+      </c>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+      <c r="J77" t="s">
+        <v>35</v>
+      </c>
+      <c r="K77" t="s">
+        <v>51</v>
+      </c>
+      <c r="L77" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" t="s">
+        <v>38</v>
+      </c>
+      <c r="N77" s="8"/>
+      <c r="O77" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="P77" s="6">
+        <v>3</v>
+      </c>
+      <c r="S77" s="8">
+        <v>13</v>
+      </c>
+      <c r="T77" s="8">
+        <v>0</v>
+      </c>
+      <c r="U77" s="8">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>261</v>
+      </c>
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" t="s">
+        <v>46</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" s="11">
+        <v>38009</v>
+      </c>
+      <c r="I78" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" t="s">
+        <v>35</v>
+      </c>
+      <c r="K78" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78" t="s">
+        <v>37</v>
+      </c>
+      <c r="M78" t="s">
+        <v>38</v>
+      </c>
+      <c r="N78" s="8"/>
+      <c r="O78" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="P78" s="6">
+        <v>3</v>
+      </c>
+      <c r="S78" s="8">
+        <v>13</v>
+      </c>
+      <c r="T78" s="8">
+        <v>0</v>
+      </c>
+      <c r="U78" s="8">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD78" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>261</v>
+      </c>
+      <c r="B79" t="s">
+        <v>265</v>
+      </c>
+      <c r="C79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E79" t="s">
+        <v>284</v>
+      </c>
+      <c r="F79" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="11">
+        <v>38745</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" t="s">
+        <v>35</v>
+      </c>
+      <c r="K79" t="s">
+        <v>51</v>
+      </c>
+      <c r="L79" t="s">
+        <v>37</v>
+      </c>
+      <c r="M79" t="s">
+        <v>38</v>
+      </c>
+      <c r="N79" s="8"/>
+      <c r="O79" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="P79" s="6">
+        <v>3</v>
+      </c>
+      <c r="S79" s="8">
+        <v>13</v>
+      </c>
+      <c r="T79" s="8">
+        <v>0</v>
+      </c>
+      <c r="U79" s="8">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD79" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" t="s">
+        <v>269</v>
+      </c>
+      <c r="C80" t="s">
+        <v>65</v>
+      </c>
+      <c r="F80" t="s">
+        <v>33</v>
+      </c>
+      <c r="G80" t="s">
+        <v>33</v>
+      </c>
+      <c r="H80" s="11">
+        <v>30347</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
+      </c>
+      <c r="J80" t="s">
+        <v>62</v>
+      </c>
+      <c r="K80" t="s">
+        <v>36</v>
+      </c>
+      <c r="L80" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80" t="s">
+        <v>38</v>
+      </c>
+      <c r="N80" s="8"/>
+      <c r="P80" s="6">
+        <v>3</v>
+      </c>
+      <c r="S80" s="8">
+        <v>14</v>
+      </c>
+      <c r="T80" s="8">
+        <v>1</v>
+      </c>
+      <c r="U80" s="8">
+        <v>1</v>
+      </c>
+      <c r="V80" t="s">
+        <v>89</v>
+      </c>
+      <c r="W80" t="s">
+        <v>70</v>
+      </c>
+      <c r="X80" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD80" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" t="s">
+        <v>272</v>
+      </c>
+      <c r="F81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" s="11">
+        <v>31055</v>
+      </c>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" t="s">
+        <v>62</v>
+      </c>
+      <c r="K81" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81" t="s">
+        <v>38</v>
+      </c>
+      <c r="N81" s="8"/>
+      <c r="P81" s="6">
+        <v>3</v>
+      </c>
+      <c r="S81" s="8">
+        <v>14</v>
+      </c>
+      <c r="T81" s="8">
+        <v>0</v>
+      </c>
+      <c r="U81" s="8">
+        <v>0</v>
+      </c>
+      <c r="V81" t="s">
+        <v>48</v>
+      </c>
+      <c r="W81" t="s">
+        <v>49</v>
+      </c>
+      <c r="X81" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>268</v>
+      </c>
+      <c r="B82" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" t="s">
+        <v>272</v>
+      </c>
+      <c r="F82" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" s="11">
+        <v>40411</v>
+      </c>
+      <c r="I82" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" t="s">
+        <v>35</v>
+      </c>
+      <c r="K82" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82" t="s">
+        <v>38</v>
+      </c>
+      <c r="N82" s="8"/>
+      <c r="P82" s="6">
+        <v>3</v>
+      </c>
+      <c r="S82" s="8">
+        <v>14</v>
+      </c>
+      <c r="T82" s="8">
+        <v>0</v>
+      </c>
+      <c r="U82" s="8">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD82" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>276</v>
+      </c>
+      <c r="C83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83" t="s">
+        <v>33</v>
+      </c>
+      <c r="G83" t="s">
+        <v>33</v>
+      </c>
+      <c r="H83" s="11">
+        <v>41166</v>
+      </c>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+      <c r="J83" t="s">
+        <v>35</v>
+      </c>
+      <c r="K83" t="s">
+        <v>51</v>
+      </c>
+      <c r="L83" t="s">
+        <v>37</v>
+      </c>
+      <c r="M83" t="s">
+        <v>38</v>
+      </c>
+      <c r="N83" s="8"/>
+      <c r="P83" s="6">
+        <v>3</v>
+      </c>
+      <c r="S83" s="8">
+        <v>14</v>
+      </c>
+      <c r="T83" s="8">
+        <v>0</v>
+      </c>
+      <c r="U83" s="8">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD83" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>231</v>
+      </c>
+      <c r="B84" t="s">
+        <v>278</v>
+      </c>
+      <c r="C84" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+      <c r="G84" t="s">
+        <v>33</v>
+      </c>
+      <c r="H84" s="11">
+        <v>25451</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+      <c r="J84" t="s">
+        <v>62</v>
+      </c>
+      <c r="K84" t="s">
+        <v>47</v>
+      </c>
+      <c r="L84" t="s">
+        <v>37</v>
+      </c>
+      <c r="M84" t="s">
+        <v>38</v>
+      </c>
+      <c r="N84" s="8"/>
+      <c r="P84" s="6">
+        <v>3</v>
+      </c>
+      <c r="S84" s="8">
+        <v>15</v>
+      </c>
+      <c r="T84" s="8">
+        <v>1</v>
+      </c>
+      <c r="U84" s="8">
+        <v>1</v>
+      </c>
+      <c r="V84" t="s">
+        <v>89</v>
+      </c>
+      <c r="W84" t="s">
+        <v>52</v>
+      </c>
+      <c r="X84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s">
+        <v>279</v>
+      </c>
+      <c r="C85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85" t="s">
+        <v>46</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" s="11">
+        <v>28236</v>
+      </c>
+      <c r="I85" t="s">
+        <v>34</v>
+      </c>
+      <c r="J85" t="s">
+        <v>62</v>
+      </c>
+      <c r="K85" t="s">
+        <v>47</v>
+      </c>
+      <c r="L85" t="s">
+        <v>37</v>
+      </c>
+      <c r="M85" t="s">
+        <v>38</v>
+      </c>
+      <c r="N85" s="8"/>
+      <c r="P85" s="6">
+        <v>3</v>
+      </c>
+      <c r="S85" s="8">
+        <v>15</v>
+      </c>
+      <c r="T85" s="8">
+        <v>0</v>
+      </c>
+      <c r="U85" s="8">
+        <v>0</v>
+      </c>
+      <c r="V85" t="s">
+        <v>48</v>
+      </c>
+      <c r="W85" t="s">
+        <v>52</v>
+      </c>
+      <c r="X85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>231</v>
+      </c>
+      <c r="B86" t="s">
+        <v>281</v>
+      </c>
+      <c r="C86" t="s">
+        <v>280</v>
+      </c>
+      <c r="F86" t="s">
+        <v>46</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="I86" t="s">
+        <v>34</v>
+      </c>
+      <c r="J86" t="s">
+        <v>35</v>
+      </c>
+      <c r="K86" t="s">
+        <v>51</v>
+      </c>
+      <c r="L86" t="s">
+        <v>37</v>
+      </c>
+      <c r="M86" t="s">
+        <v>38</v>
+      </c>
+      <c r="N86" s="8"/>
+      <c r="O86" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="P86" s="6">
+        <v>3</v>
+      </c>
+      <c r="S86" s="8">
+        <v>15</v>
+      </c>
+      <c r="T86" s="8">
+        <v>0</v>
+      </c>
+      <c r="U86" s="8">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O55" r:id="rId1" xr:uid="{E86405C0-66F5-4EA3-BBD4-3D1AD5FD32F5}"/>
+    <hyperlink ref="O77" r:id="rId2" xr:uid="{FBD24144-9CAB-4E78-AD2B-8CD2D4137937}"/>
+    <hyperlink ref="O78" r:id="rId3" xr:uid="{A69B6B22-71D0-4D69-8AE3-E9D8AB3D8700}"/>
+    <hyperlink ref="O79" r:id="rId4" xr:uid="{6852A852-F180-4FF0-92AA-B58B29A12E40}"/>
+    <hyperlink ref="O86" r:id="rId5" xr:uid="{45E9A0BA-3104-4ADC-98B0-7CAC7A359D25}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/data/residents.xlsx
+++ b/database/seeders/data/residents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Laravel-11\bims-capstone2\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD17820-A3EB-4119-BDAF-B82B4607F7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F88E5-62D7-440B-8A04-8DC34A926202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9444" uniqueCount="1905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9815" uniqueCount="1905">
   <si>
     <t>FIRST NAME</t>
   </si>
@@ -6189,10 +6189,10 @@
   </sheetPr>
   <dimension ref="A1:AD732"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A441" sqref="A441:XFD732"/>
+      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8108,9 +8108,8 @@
       <c r="F33" t="s">
         <v>46</v>
       </c>
-      <c r="G33" t="str">
-        <f>F33</f>
-        <v>female</v>
+      <c r="G33" t="s">
+        <v>46</v>
       </c>
       <c r="H33" s="11">
         <v>38826</v>
@@ -8168,9 +8167,8 @@
       <c r="F34" t="s">
         <v>46</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" ref="G34:G52" si="0">F34</f>
-        <v>female</v>
+      <c r="G34" t="s">
+        <v>46</v>
       </c>
       <c r="H34" s="11">
         <v>39710</v>
@@ -8225,9 +8223,8 @@
       <c r="F35" t="s">
         <v>33</v>
       </c>
-      <c r="G35" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G35" t="s">
+        <v>33</v>
       </c>
       <c r="H35" s="11" t="s">
         <v>153</v>
@@ -8273,9 +8270,8 @@
       <c r="F36" t="s">
         <v>33</v>
       </c>
-      <c r="G36" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G36" t="s">
+        <v>33</v>
       </c>
       <c r="H36" s="11">
         <v>42985</v>
@@ -8383,9 +8379,8 @@
       <c r="F38" t="s">
         <v>46</v>
       </c>
-      <c r="G38" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G38" t="s">
+        <v>46</v>
       </c>
       <c r="H38" s="11">
         <v>41613</v>
@@ -8440,9 +8435,8 @@
       <c r="F39" t="s">
         <v>33</v>
       </c>
-      <c r="G39" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G39" t="s">
+        <v>33</v>
       </c>
       <c r="H39" s="11">
         <v>44687</v>
@@ -8488,9 +8482,8 @@
       <c r="F40" t="s">
         <v>33</v>
       </c>
-      <c r="G40" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G40" t="s">
+        <v>33</v>
       </c>
       <c r="H40" s="11">
         <v>33016</v>
@@ -8551,9 +8544,8 @@
       <c r="F41" t="s">
         <v>46</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G41" t="s">
+        <v>46</v>
       </c>
       <c r="H41" s="11">
         <v>35545</v>
@@ -8614,9 +8606,8 @@
       <c r="F42" t="s">
         <v>33</v>
       </c>
-      <c r="G42" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G42" t="s">
+        <v>33</v>
       </c>
       <c r="H42" s="11">
         <v>42147</v>
@@ -8665,9 +8656,8 @@
       <c r="F43" t="s">
         <v>46</v>
       </c>
-      <c r="G43" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G43" t="s">
+        <v>46</v>
       </c>
       <c r="H43" s="11">
         <v>25366</v>
@@ -8722,9 +8712,8 @@
       <c r="F44" t="s">
         <v>46</v>
       </c>
-      <c r="G44" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G44" t="s">
+        <v>46</v>
       </c>
       <c r="H44" s="11">
         <v>39539</v>
@@ -8773,9 +8762,8 @@
       <c r="F45" t="s">
         <v>46</v>
       </c>
-      <c r="G45" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G45" t="s">
+        <v>46</v>
       </c>
       <c r="H45" s="11">
         <v>23166</v>
@@ -8830,9 +8818,8 @@
       <c r="F46" t="s">
         <v>33</v>
       </c>
-      <c r="G46" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G46" t="s">
+        <v>33</v>
       </c>
       <c r="H46" s="11">
         <v>37946</v>
@@ -8881,9 +8868,8 @@
       <c r="F47" t="s">
         <v>46</v>
       </c>
-      <c r="G47" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G47" t="s">
+        <v>46</v>
       </c>
       <c r="H47" s="11">
         <v>37787</v>
@@ -8944,9 +8930,8 @@
       <c r="F48" t="s">
         <v>33</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G48" t="s">
+        <v>33</v>
       </c>
       <c r="H48" s="11">
         <v>43632</v>
@@ -8995,9 +8980,8 @@
       <c r="F49" t="s">
         <v>33</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G49" t="s">
+        <v>33</v>
       </c>
       <c r="H49" s="11">
         <v>35123</v>
@@ -9055,9 +9039,8 @@
       <c r="F50" t="s">
         <v>33</v>
       </c>
-      <c r="G50" t="str">
-        <f t="shared" si="0"/>
-        <v>male</v>
+      <c r="G50" t="s">
+        <v>33</v>
       </c>
       <c r="H50" s="11">
         <v>35675</v>
@@ -9118,9 +9101,8 @@
       <c r="F51" t="s">
         <v>46</v>
       </c>
-      <c r="G51" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G51" t="s">
+        <v>46</v>
       </c>
       <c r="H51" s="11">
         <v>37279</v>
@@ -9181,9 +9163,8 @@
       <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="G52" t="str">
-        <f t="shared" si="0"/>
-        <v>female</v>
+      <c r="G52" t="s">
+        <v>46</v>
       </c>
       <c r="H52" s="11">
         <v>42922</v>
@@ -11109,9 +11090,8 @@
       <c r="F87" t="s">
         <v>46</v>
       </c>
-      <c r="G87" t="str">
-        <f>F87</f>
-        <v>female</v>
+      <c r="G87" t="s">
+        <v>46</v>
       </c>
       <c r="H87" s="11">
         <v>23727</v>
@@ -11172,9 +11152,8 @@
       <c r="F88" t="s">
         <v>33</v>
       </c>
-      <c r="G88" t="str">
-        <f t="shared" ref="G88:G154" si="1">F88</f>
-        <v>male</v>
+      <c r="G88" t="s">
+        <v>33</v>
       </c>
       <c r="H88" s="11">
         <v>28422</v>
@@ -11235,9 +11214,8 @@
       <c r="F89" t="s">
         <v>46</v>
       </c>
-      <c r="G89" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G89" t="s">
+        <v>46</v>
       </c>
       <c r="H89" s="11">
         <v>29371</v>
@@ -11289,9 +11267,8 @@
       <c r="F90" t="s">
         <v>33</v>
       </c>
-      <c r="G90" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G90" t="s">
+        <v>33</v>
       </c>
       <c r="H90" s="11">
         <v>39042</v>
@@ -11349,9 +11326,8 @@
       <c r="F91" t="s">
         <v>33</v>
       </c>
-      <c r="G91" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G91" t="s">
+        <v>33</v>
       </c>
       <c r="H91" s="11">
         <v>41775</v>
@@ -11403,9 +11379,8 @@
       <c r="F92" t="s">
         <v>33</v>
       </c>
-      <c r="G92" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G92" t="s">
+        <v>33</v>
       </c>
       <c r="H92" s="11">
         <v>16121</v>
@@ -11457,9 +11432,8 @@
       <c r="F93" t="s">
         <v>33</v>
       </c>
-      <c r="G93" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G93" t="s">
+        <v>33</v>
       </c>
       <c r="H93" s="11">
         <v>26868</v>
@@ -11508,9 +11482,8 @@
       <c r="F94" t="s">
         <v>33</v>
       </c>
-      <c r="G94" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G94" t="s">
+        <v>33</v>
       </c>
       <c r="H94" s="11">
         <v>32422</v>
@@ -11568,9 +11541,8 @@
       <c r="F95" t="s">
         <v>46</v>
       </c>
-      <c r="G95" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G95" t="s">
+        <v>46</v>
       </c>
       <c r="H95" s="11">
         <v>36705</v>
@@ -11628,9 +11600,8 @@
       <c r="F96" t="s">
         <v>46</v>
       </c>
-      <c r="G96" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G96" t="s">
+        <v>46</v>
       </c>
       <c r="H96" s="11">
         <v>43379</v>
@@ -11676,9 +11647,8 @@
       <c r="F97" t="s">
         <v>33</v>
       </c>
-      <c r="G97" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G97" t="s">
+        <v>33</v>
       </c>
       <c r="H97" s="11">
         <v>27238</v>
@@ -11736,9 +11706,8 @@
       <c r="F98" t="s">
         <v>46</v>
       </c>
-      <c r="G98" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G98" t="s">
+        <v>46</v>
       </c>
       <c r="H98" s="11">
         <v>26787</v>
@@ -11799,9 +11768,8 @@
       <c r="F99" t="s">
         <v>46</v>
       </c>
-      <c r="G99" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G99" t="s">
+        <v>46</v>
       </c>
       <c r="H99" s="11">
         <v>37724</v>
@@ -11850,9 +11818,8 @@
       <c r="F100" t="s">
         <v>33</v>
       </c>
-      <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G100" t="s">
+        <v>33</v>
       </c>
       <c r="H100" s="11">
         <v>29567</v>
@@ -11910,9 +11877,8 @@
       <c r="F101" t="s">
         <v>46</v>
       </c>
-      <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G101" t="s">
+        <v>46</v>
       </c>
       <c r="H101" s="11">
         <v>33005</v>
@@ -11973,9 +11939,8 @@
       <c r="F102" t="s">
         <v>46</v>
       </c>
-      <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G102" t="s">
+        <v>46</v>
       </c>
       <c r="H102" s="11">
         <v>40529</v>
@@ -12027,9 +11992,8 @@
       <c r="F103" t="s">
         <v>33</v>
       </c>
-      <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G103" t="s">
+        <v>33</v>
       </c>
       <c r="H103" s="11">
         <v>43056</v>
@@ -12081,9 +12045,8 @@
       <c r="F104" t="s">
         <v>33</v>
       </c>
-      <c r="G104" t="str">
-        <f>F104</f>
-        <v>male</v>
+      <c r="G104" t="s">
+        <v>33</v>
       </c>
       <c r="H104" s="11">
         <v>25788</v>
@@ -12141,9 +12104,8 @@
       <c r="F105" t="s">
         <v>46</v>
       </c>
-      <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G105" t="s">
+        <v>46</v>
       </c>
       <c r="H105" s="11">
         <v>25693</v>
@@ -12257,9 +12219,8 @@
       <c r="F107" t="s">
         <v>46</v>
       </c>
-      <c r="G107" t="str">
-        <f>F107</f>
-        <v>female</v>
+      <c r="G107" t="s">
+        <v>46</v>
       </c>
       <c r="H107" s="11">
         <v>33336</v>
@@ -12320,9 +12281,8 @@
       <c r="F108" t="s">
         <v>33</v>
       </c>
-      <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G108" t="s">
+        <v>33</v>
       </c>
       <c r="H108" s="11">
         <v>27013</v>
@@ -12380,9 +12340,8 @@
       <c r="F109" t="s">
         <v>46</v>
       </c>
-      <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G109" t="s">
+        <v>46</v>
       </c>
       <c r="H109" s="11">
         <v>28600</v>
@@ -12443,9 +12402,8 @@
       <c r="F110" t="s">
         <v>33</v>
       </c>
-      <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G110" t="s">
+        <v>33</v>
       </c>
       <c r="H110" s="11">
         <v>41628</v>
@@ -12500,9 +12458,8 @@
       <c r="F111" t="s">
         <v>33</v>
       </c>
-      <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G111" t="s">
+        <v>33</v>
       </c>
       <c r="H111" s="11">
         <v>37302</v>
@@ -12563,9 +12520,8 @@
       <c r="F112" t="s">
         <v>46</v>
       </c>
-      <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G112" t="s">
+        <v>46</v>
       </c>
       <c r="H112" s="11">
         <v>37447</v>
@@ -12626,9 +12582,8 @@
       <c r="F113" t="s">
         <v>33</v>
       </c>
-      <c r="G113" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G113" t="s">
+        <v>33</v>
       </c>
       <c r="H113" s="11">
         <v>44606</v>
@@ -12674,9 +12629,8 @@
       <c r="F114" t="s">
         <v>33</v>
       </c>
-      <c r="G114" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G114" t="s">
+        <v>33</v>
       </c>
       <c r="H114" s="11">
         <v>20211</v>
@@ -12731,9 +12685,8 @@
       <c r="F115" t="s">
         <v>46</v>
       </c>
-      <c r="G115" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G115" t="s">
+        <v>46</v>
       </c>
       <c r="H115" s="11">
         <v>23289</v>
@@ -12791,9 +12744,8 @@
       <c r="F116" t="s">
         <v>33</v>
       </c>
-      <c r="G116" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G116" t="s">
+        <v>33</v>
       </c>
       <c r="H116" s="11">
         <v>31284</v>
@@ -12851,9 +12803,8 @@
       <c r="F117" t="s">
         <v>46</v>
       </c>
-      <c r="G117" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G117" t="s">
+        <v>46</v>
       </c>
       <c r="H117" s="11">
         <v>32863</v>
@@ -12914,9 +12865,8 @@
       <c r="F118" t="s">
         <v>33</v>
       </c>
-      <c r="G118" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G118" t="s">
+        <v>33</v>
       </c>
       <c r="H118" s="11">
         <v>45069</v>
@@ -12962,9 +12912,8 @@
       <c r="F119" t="s">
         <v>33</v>
       </c>
-      <c r="G119" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G119" t="s">
+        <v>33</v>
       </c>
       <c r="H119" s="11">
         <v>36424</v>
@@ -13022,9 +12971,8 @@
       <c r="F120" t="s">
         <v>46</v>
       </c>
-      <c r="G120" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G120" t="s">
+        <v>46</v>
       </c>
       <c r="H120" s="11">
         <v>37795</v>
@@ -13082,9 +13030,8 @@
       <c r="F121" t="s">
         <v>46</v>
       </c>
-      <c r="G121" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G121" t="s">
+        <v>46</v>
       </c>
       <c r="H121" s="11">
         <v>44381</v>
@@ -13130,9 +13077,8 @@
       <c r="F122" t="s">
         <v>46</v>
       </c>
-      <c r="G122" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G122" t="s">
+        <v>46</v>
       </c>
       <c r="H122" s="11">
         <v>45469</v>
@@ -13181,9 +13127,8 @@
       <c r="F123" t="s">
         <v>33</v>
       </c>
-      <c r="G123" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G123" t="s">
+        <v>33</v>
       </c>
       <c r="H123" s="11">
         <v>20395</v>
@@ -13244,9 +13189,8 @@
       <c r="F124" t="s">
         <v>46</v>
       </c>
-      <c r="G124" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G124" t="s">
+        <v>46</v>
       </c>
       <c r="H124" s="11">
         <v>21645</v>
@@ -13307,9 +13251,8 @@
       <c r="F125" t="s">
         <v>46</v>
       </c>
-      <c r="G125" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G125" t="s">
+        <v>46</v>
       </c>
       <c r="H125" s="11">
         <v>30784</v>
@@ -13376,9 +13319,8 @@
       <c r="F126" t="s">
         <v>33</v>
       </c>
-      <c r="G126" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G126" t="s">
+        <v>33</v>
       </c>
       <c r="H126" s="11">
         <v>34590</v>
@@ -13439,9 +13381,8 @@
       <c r="F127" t="s">
         <v>33</v>
       </c>
-      <c r="G127" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G127" t="s">
+        <v>33</v>
       </c>
       <c r="H127" s="11">
         <v>39478</v>
@@ -13496,9 +13437,8 @@
       <c r="F128" t="s">
         <v>46</v>
       </c>
-      <c r="G128" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G128" t="s">
+        <v>46</v>
       </c>
       <c r="H128" s="11">
         <v>37029</v>
@@ -13559,9 +13499,8 @@
       <c r="F129" t="s">
         <v>33</v>
       </c>
-      <c r="G129" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G129" t="s">
+        <v>33</v>
       </c>
       <c r="H129" s="11">
         <v>34196</v>
@@ -13619,9 +13558,8 @@
       <c r="F130" t="s">
         <v>46</v>
       </c>
-      <c r="G130" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G130" t="s">
+        <v>46</v>
       </c>
       <c r="H130" s="11">
         <v>34212</v>
@@ -13682,9 +13620,8 @@
       <c r="F131" t="s">
         <v>46</v>
       </c>
-      <c r="G131" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G131" t="s">
+        <v>46</v>
       </c>
       <c r="H131" s="11">
         <v>42445</v>
@@ -13739,9 +13676,8 @@
       <c r="F132" t="s">
         <v>33</v>
       </c>
-      <c r="G132" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G132" t="s">
+        <v>33</v>
       </c>
       <c r="H132" s="11">
         <v>22599</v>
@@ -13802,9 +13738,8 @@
       <c r="F133" t="s">
         <v>46</v>
       </c>
-      <c r="G133" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G133" t="s">
+        <v>46</v>
       </c>
       <c r="H133" s="11">
         <v>22332</v>
@@ -13865,9 +13800,8 @@
       <c r="F134" t="s">
         <v>33</v>
       </c>
-      <c r="G134" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G134" t="s">
+        <v>33</v>
       </c>
       <c r="H134" s="11">
         <v>29402</v>
@@ -13925,9 +13859,8 @@
       <c r="F135" t="s">
         <v>33</v>
       </c>
-      <c r="G135" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G135" t="s">
+        <v>33</v>
       </c>
       <c r="H135" s="11">
         <v>44974</v>
@@ -13973,9 +13906,8 @@
       <c r="F136" t="s">
         <v>46</v>
       </c>
-      <c r="G136" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G136" t="s">
+        <v>46</v>
       </c>
       <c r="H136" s="11">
         <v>30576</v>
@@ -14033,9 +13965,8 @@
       <c r="F137" t="s">
         <v>33</v>
       </c>
-      <c r="G137" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G137" t="s">
+        <v>33</v>
       </c>
       <c r="H137" s="11">
         <v>19736</v>
@@ -14087,9 +14018,8 @@
       <c r="F138" t="s">
         <v>46</v>
       </c>
-      <c r="G138" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G138" t="s">
+        <v>46</v>
       </c>
       <c r="H138" s="11">
         <v>20490</v>
@@ -14147,9 +14077,8 @@
       <c r="F139" t="s">
         <v>33</v>
       </c>
-      <c r="G139" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G139" t="s">
+        <v>33</v>
       </c>
       <c r="H139" s="11">
         <v>26788</v>
@@ -14207,9 +14136,8 @@
       <c r="F140" t="s">
         <v>46</v>
       </c>
-      <c r="G140" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G140" t="s">
+        <v>46</v>
       </c>
       <c r="H140" s="11">
         <v>27672</v>
@@ -14267,9 +14195,8 @@
       <c r="F141" t="s">
         <v>33</v>
       </c>
-      <c r="G141" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G141" t="s">
+        <v>33</v>
       </c>
       <c r="H141" s="11">
         <v>36788</v>
@@ -14333,9 +14260,8 @@
       <c r="F142" t="s">
         <v>33</v>
       </c>
-      <c r="G142" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G142" t="s">
+        <v>33</v>
       </c>
       <c r="H142" s="11">
         <v>39601</v>
@@ -14387,9 +14313,8 @@
       <c r="F143" t="s">
         <v>33</v>
       </c>
-      <c r="G143" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G143" t="s">
+        <v>33</v>
       </c>
       <c r="H143" s="11">
         <v>29864</v>
@@ -14447,9 +14372,8 @@
       <c r="F144" t="s">
         <v>46</v>
       </c>
-      <c r="G144" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G144" t="s">
+        <v>46</v>
       </c>
       <c r="H144" s="11">
         <v>29011</v>
@@ -14501,9 +14425,8 @@
       <c r="F145" t="s">
         <v>33</v>
       </c>
-      <c r="G145" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G145" t="s">
+        <v>33</v>
       </c>
       <c r="H145" s="11">
         <v>35768</v>
@@ -14561,9 +14484,8 @@
       <c r="F146" t="s">
         <v>33</v>
       </c>
-      <c r="G146" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G146" t="s">
+        <v>33</v>
       </c>
       <c r="H146" s="11">
         <v>37691</v>
@@ -14621,9 +14543,8 @@
       <c r="F147" t="s">
         <v>46</v>
       </c>
-      <c r="G147" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G147" t="s">
+        <v>46</v>
       </c>
       <c r="H147" s="11">
         <v>38795</v>
@@ -14684,9 +14605,8 @@
       <c r="F148" t="s">
         <v>33</v>
       </c>
-      <c r="G148" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G148" t="s">
+        <v>33</v>
       </c>
       <c r="H148" s="11">
         <v>22682</v>
@@ -14747,9 +14667,8 @@
       <c r="F149" t="s">
         <v>46</v>
       </c>
-      <c r="G149" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G149" t="s">
+        <v>46</v>
       </c>
       <c r="H149" s="11">
         <v>23098</v>
@@ -14810,9 +14729,8 @@
       <c r="F150" t="s">
         <v>33</v>
       </c>
-      <c r="G150" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G150" t="s">
+        <v>33</v>
       </c>
       <c r="H150" s="11">
         <v>24546</v>
@@ -14870,9 +14788,8 @@
       <c r="F151" t="s">
         <v>33</v>
       </c>
-      <c r="G151" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G151" t="s">
+        <v>33</v>
       </c>
       <c r="H151" s="11">
         <v>25382</v>
@@ -14930,9 +14847,8 @@
       <c r="F152" t="s">
         <v>46</v>
       </c>
-      <c r="G152" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G152" t="s">
+        <v>46</v>
       </c>
       <c r="H152" s="11">
         <v>31027</v>
@@ -14990,9 +14906,8 @@
       <c r="F153" t="s">
         <v>33</v>
       </c>
-      <c r="G153" t="str">
-        <f t="shared" si="1"/>
-        <v>male</v>
+      <c r="G153" t="s">
+        <v>33</v>
       </c>
       <c r="H153" s="11">
         <v>25990</v>
@@ -15053,9 +14968,8 @@
       <c r="F154" t="s">
         <v>46</v>
       </c>
-      <c r="G154" t="str">
-        <f t="shared" si="1"/>
-        <v>female</v>
+      <c r="G154" t="s">
+        <v>46</v>
       </c>
       <c r="H154" s="11">
         <v>26831</v>
@@ -15107,9 +15021,8 @@
       <c r="F155" t="s">
         <v>33</v>
       </c>
-      <c r="G155" t="str">
-        <f t="shared" ref="G155:G234" si="2">F155</f>
-        <v>male</v>
+      <c r="G155" t="s">
+        <v>33</v>
       </c>
       <c r="H155" s="11">
         <v>39846</v>
@@ -15161,9 +15074,8 @@
       <c r="F156" t="s">
         <v>33</v>
       </c>
-      <c r="G156" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G156" t="s">
+        <v>33</v>
       </c>
       <c r="H156" s="11">
         <v>40290</v>
@@ -15218,9 +15130,8 @@
       <c r="F157" t="s">
         <v>46</v>
       </c>
-      <c r="G157" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G157" t="s">
+        <v>46</v>
       </c>
       <c r="H157" s="11">
         <v>41275</v>
@@ -15275,9 +15186,8 @@
       <c r="F158" t="s">
         <v>46</v>
       </c>
-      <c r="G158" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G158" t="s">
+        <v>46</v>
       </c>
       <c r="H158" s="11">
         <v>42605</v>
@@ -15332,9 +15242,8 @@
       <c r="F159" t="s">
         <v>33</v>
       </c>
-      <c r="G159" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G159" t="s">
+        <v>33</v>
       </c>
       <c r="H159" s="11">
         <v>33382</v>
@@ -15386,9 +15295,8 @@
       <c r="F160" t="s">
         <v>46</v>
       </c>
-      <c r="G160" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G160" t="s">
+        <v>46</v>
       </c>
       <c r="H160" s="11">
         <v>34322</v>
@@ -15440,9 +15348,8 @@
       <c r="F161" t="s">
         <v>33</v>
       </c>
-      <c r="G161" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G161" t="s">
+        <v>33</v>
       </c>
       <c r="H161" s="11">
         <v>41362</v>
@@ -15488,9 +15395,8 @@
       <c r="F162" t="s">
         <v>33</v>
       </c>
-      <c r="G162" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G162" t="s">
+        <v>33</v>
       </c>
       <c r="H162" s="11">
         <v>45146</v>
@@ -15536,9 +15442,8 @@
       <c r="F163" t="s">
         <v>33</v>
       </c>
-      <c r="G163" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G163" t="s">
+        <v>33</v>
       </c>
       <c r="H163" s="11">
         <v>23190</v>
@@ -15596,9 +15501,8 @@
       <c r="F164" t="s">
         <v>46</v>
       </c>
-      <c r="G164" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G164" t="s">
+        <v>46</v>
       </c>
       <c r="H164" s="11">
         <v>23382</v>
@@ -15659,9 +15563,8 @@
       <c r="F165" t="s">
         <v>46</v>
       </c>
-      <c r="G165" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G165" t="s">
+        <v>46</v>
       </c>
       <c r="H165" s="11">
         <v>37149</v>
@@ -15719,9 +15622,8 @@
       <c r="F166" t="s">
         <v>33</v>
       </c>
-      <c r="G166" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G166" t="s">
+        <v>33</v>
       </c>
       <c r="H166" s="11">
         <v>30272</v>
@@ -15782,9 +15684,8 @@
       <c r="F167" t="s">
         <v>46</v>
       </c>
-      <c r="G167" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G167" t="s">
+        <v>46</v>
       </c>
       <c r="H167" s="11">
         <v>33232</v>
@@ -15842,9 +15743,8 @@
       <c r="F168" t="s">
         <v>46</v>
       </c>
-      <c r="G168" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G168" t="s">
+        <v>46</v>
       </c>
       <c r="H168" s="11">
         <v>38869</v>
@@ -15899,9 +15799,8 @@
       <c r="F169" t="s">
         <v>46</v>
       </c>
-      <c r="G169" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G169" t="s">
+        <v>46</v>
       </c>
       <c r="H169" s="11">
         <v>44746</v>
@@ -15950,9 +15849,8 @@
       <c r="F170" t="s">
         <v>46</v>
       </c>
-      <c r="G170" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G170" t="s">
+        <v>46</v>
       </c>
       <c r="H170" s="11">
         <v>42949</v>
@@ -16001,9 +15899,8 @@
       <c r="F171" t="s">
         <v>33</v>
       </c>
-      <c r="G171" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G171" t="s">
+        <v>33</v>
       </c>
       <c r="H171" s="11">
         <v>34822</v>
@@ -16064,9 +15961,8 @@
       <c r="F172" t="s">
         <v>46</v>
       </c>
-      <c r="G172" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G172" t="s">
+        <v>46</v>
       </c>
       <c r="H172" s="11">
         <v>35996</v>
@@ -16127,9 +16023,8 @@
       <c r="F173" t="s">
         <v>33</v>
       </c>
-      <c r="G173" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G173" t="s">
+        <v>33</v>
       </c>
       <c r="H173" s="11">
         <v>41834</v>
@@ -16184,9 +16079,8 @@
       <c r="F174" t="s">
         <v>33</v>
       </c>
-      <c r="G174" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G174" t="s">
+        <v>33</v>
       </c>
       <c r="H174" s="11">
         <v>43062</v>
@@ -16238,9 +16132,8 @@
       <c r="F175" t="s">
         <v>46</v>
       </c>
-      <c r="G175" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G175" t="s">
+        <v>46</v>
       </c>
       <c r="H175" s="11">
         <v>43596</v>
@@ -16292,9 +16185,8 @@
       <c r="F176" t="s">
         <v>33</v>
       </c>
-      <c r="G176" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G176" t="s">
+        <v>33</v>
       </c>
       <c r="H176" s="11">
         <v>26684</v>
@@ -16346,9 +16238,8 @@
       <c r="F177" t="s">
         <v>46</v>
       </c>
-      <c r="G177" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G177" t="s">
+        <v>46</v>
       </c>
       <c r="H177" s="11">
         <v>26979</v>
@@ -16403,9 +16294,8 @@
       <c r="F178" t="s">
         <v>33</v>
       </c>
-      <c r="G178" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G178" t="s">
+        <v>33</v>
       </c>
       <c r="H178" s="11">
         <v>37690</v>
@@ -16466,9 +16356,8 @@
       <c r="F179" t="s">
         <v>33</v>
       </c>
-      <c r="G179" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G179" t="s">
+        <v>33</v>
       </c>
       <c r="H179" s="11">
         <v>39052</v>
@@ -16520,9 +16409,8 @@
       <c r="F180" t="s">
         <v>46</v>
       </c>
-      <c r="G180" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G180" t="s">
+        <v>46</v>
       </c>
       <c r="H180" s="11">
         <v>36910</v>
@@ -16574,9 +16462,8 @@
       <c r="F181" t="s">
         <v>33</v>
       </c>
-      <c r="G181" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G181" t="s">
+        <v>33</v>
       </c>
       <c r="H181" s="11">
         <v>43042</v>
@@ -16628,9 +16515,8 @@
       <c r="F182" t="s">
         <v>33</v>
       </c>
-      <c r="G182" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G182" t="s">
+        <v>33</v>
       </c>
       <c r="H182" s="11">
         <v>23472</v>
@@ -16688,9 +16574,8 @@
       <c r="F183" t="s">
         <v>46</v>
       </c>
-      <c r="G183" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G183" t="s">
+        <v>46</v>
       </c>
       <c r="H183" s="11">
         <v>22601</v>
@@ -16748,9 +16633,8 @@
       <c r="F184" t="s">
         <v>33</v>
       </c>
-      <c r="G184" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G184" t="s">
+        <v>33</v>
       </c>
       <c r="H184" s="11">
         <v>33454</v>
@@ -16814,9 +16698,8 @@
       <c r="F185" t="s">
         <v>33</v>
       </c>
-      <c r="G185" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G185" t="s">
+        <v>33</v>
       </c>
       <c r="H185" s="11">
         <v>30921</v>
@@ -16877,9 +16760,8 @@
       <c r="F186" t="s">
         <v>46</v>
       </c>
-      <c r="G186" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G186" t="s">
+        <v>46</v>
       </c>
       <c r="H186" s="11">
         <v>32769</v>
@@ -16934,9 +16816,8 @@
       <c r="F187" t="s">
         <v>33</v>
       </c>
-      <c r="G187" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G187" t="s">
+        <v>33</v>
       </c>
       <c r="H187" s="11">
         <v>40969</v>
@@ -16991,9 +16872,8 @@
       <c r="F188" t="s">
         <v>46</v>
       </c>
-      <c r="G188" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G188" t="s">
+        <v>46</v>
       </c>
       <c r="H188" s="11">
         <v>42465</v>
@@ -17045,9 +16925,8 @@
       <c r="F189" t="s">
         <v>46</v>
       </c>
-      <c r="G189" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G189" t="s">
+        <v>46</v>
       </c>
       <c r="H189" s="11">
         <v>44055</v>
@@ -17093,9 +16972,8 @@
       <c r="F190" t="s">
         <v>33</v>
       </c>
-      <c r="G190" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G190" t="s">
+        <v>33</v>
       </c>
       <c r="H190" s="11">
         <v>26984</v>
@@ -17148,9 +17026,8 @@
       <c r="F191" t="s">
         <v>33</v>
       </c>
-      <c r="G191" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G191" t="s">
+        <v>33</v>
       </c>
       <c r="H191" s="11">
         <v>17866</v>
@@ -17205,9 +17082,8 @@
       <c r="F192" t="s">
         <v>46</v>
       </c>
-      <c r="G192" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G192" t="s">
+        <v>46</v>
       </c>
       <c r="H192" s="11">
         <v>37134</v>
@@ -17271,9 +17147,8 @@
       <c r="F193" t="s">
         <v>46</v>
       </c>
-      <c r="G193" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G193" t="s">
+        <v>46</v>
       </c>
       <c r="H193" s="11">
         <v>40702</v>
@@ -17331,9 +17206,8 @@
       <c r="F194" t="s">
         <v>46</v>
       </c>
-      <c r="G194" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G194" t="s">
+        <v>46</v>
       </c>
       <c r="H194" s="11">
         <v>36023</v>
@@ -17394,9 +17268,8 @@
       <c r="F195" t="s">
         <v>33</v>
       </c>
-      <c r="G195" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G195" t="s">
+        <v>33</v>
       </c>
       <c r="H195" s="11">
         <v>28867</v>
@@ -17448,9 +17321,8 @@
       <c r="F196" t="s">
         <v>46</v>
       </c>
-      <c r="G196" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G196" t="s">
+        <v>46</v>
       </c>
       <c r="H196" s="11">
         <v>34438</v>
@@ -17508,9 +17380,8 @@
       <c r="F197" t="s">
         <v>46</v>
       </c>
-      <c r="G197" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G197" t="s">
+        <v>46</v>
       </c>
       <c r="H197" s="11">
         <v>44594</v>
@@ -17562,9 +17433,8 @@
       <c r="F198" t="s">
         <v>33</v>
       </c>
-      <c r="G198" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G198" t="s">
+        <v>33</v>
       </c>
       <c r="H198" s="11">
         <v>40864</v>
@@ -17613,9 +17483,8 @@
       <c r="F199" t="s">
         <v>33</v>
       </c>
-      <c r="G199" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G199" t="s">
+        <v>33</v>
       </c>
       <c r="H199" s="11">
         <v>27018</v>
@@ -17673,9 +17542,8 @@
       <c r="F200" t="s">
         <v>46</v>
       </c>
-      <c r="G200" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G200" t="s">
+        <v>46</v>
       </c>
       <c r="H200" s="11">
         <v>28592</v>
@@ -17733,9 +17601,8 @@
       <c r="F201" t="s">
         <v>46</v>
       </c>
-      <c r="G201" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G201" t="s">
+        <v>46</v>
       </c>
       <c r="H201" s="11">
         <v>39099</v>
@@ -17787,9 +17654,8 @@
       <c r="F202" t="s">
         <v>33</v>
       </c>
-      <c r="G202" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G202" t="s">
+        <v>33</v>
       </c>
       <c r="H202" s="11">
         <v>35015</v>
@@ -17847,9 +17713,8 @@
       <c r="F203" t="s">
         <v>46</v>
       </c>
-      <c r="G203" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G203" t="s">
+        <v>46</v>
       </c>
       <c r="H203" s="11">
         <v>35337</v>
@@ -17907,9 +17772,8 @@
       <c r="F204" t="s">
         <v>46</v>
       </c>
-      <c r="G204" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G204" t="s">
+        <v>46</v>
       </c>
       <c r="H204" s="11">
         <v>43663</v>
@@ -17958,9 +17822,8 @@
       <c r="F205" t="s">
         <v>33</v>
       </c>
-      <c r="G205" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G205" t="s">
+        <v>33</v>
       </c>
       <c r="H205" s="11">
         <v>26587</v>
@@ -18024,9 +17887,8 @@
       <c r="F206" t="s">
         <v>46</v>
       </c>
-      <c r="G206" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G206" t="s">
+        <v>46</v>
       </c>
       <c r="H206" s="11">
         <v>29145</v>
@@ -18087,9 +17949,8 @@
       <c r="F207" t="s">
         <v>33</v>
       </c>
-      <c r="G207" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G207" t="s">
+        <v>33</v>
       </c>
       <c r="H207" s="11">
         <v>37749</v>
@@ -18144,9 +18005,8 @@
       <c r="F208" t="s">
         <v>46</v>
       </c>
-      <c r="G208" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G208" t="s">
+        <v>46</v>
       </c>
       <c r="I208" t="s">
         <v>34</v>
@@ -18198,9 +18058,8 @@
       <c r="F209" t="s">
         <v>33</v>
       </c>
-      <c r="G209" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G209" t="s">
+        <v>33</v>
       </c>
       <c r="H209" s="11">
         <v>33318</v>
@@ -18261,9 +18120,8 @@
       <c r="F210" t="s">
         <v>46</v>
       </c>
-      <c r="G210" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G210" t="s">
+        <v>46</v>
       </c>
       <c r="H210" s="11">
         <v>38183</v>
@@ -18321,9 +18179,8 @@
       <c r="F211" t="s">
         <v>46</v>
       </c>
-      <c r="G211" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G211" t="s">
+        <v>46</v>
       </c>
       <c r="H211" s="11">
         <v>44838</v>
@@ -18369,9 +18226,8 @@
       <c r="F212" t="s">
         <v>33</v>
       </c>
-      <c r="G212" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G212" t="s">
+        <v>33</v>
       </c>
       <c r="H212" s="11">
         <v>23905</v>
@@ -18432,9 +18288,8 @@
       <c r="F213" t="s">
         <v>46</v>
       </c>
-      <c r="G213" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G213" t="s">
+        <v>46</v>
       </c>
       <c r="H213" s="11">
         <v>30322</v>
@@ -18495,9 +18350,8 @@
       <c r="F214" t="s">
         <v>33</v>
       </c>
-      <c r="G214" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G214" t="s">
+        <v>33</v>
       </c>
       <c r="H214" s="11">
         <v>37654</v>
@@ -18552,9 +18406,8 @@
       <c r="F215" t="s">
         <v>46</v>
       </c>
-      <c r="G215" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G215" t="s">
+        <v>46</v>
       </c>
       <c r="H215" s="11">
         <v>40632</v>
@@ -18609,9 +18462,8 @@
       <c r="F216" t="s">
         <v>46</v>
       </c>
-      <c r="G216" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G216" t="s">
+        <v>46</v>
       </c>
       <c r="H216" s="11">
         <v>22330</v>
@@ -18660,9 +18512,8 @@
       <c r="F217" t="s">
         <v>33</v>
       </c>
-      <c r="G217" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G217" t="s">
+        <v>33</v>
       </c>
       <c r="H217" s="11">
         <v>25209</v>
@@ -18720,9 +18571,8 @@
       <c r="F218" t="s">
         <v>46</v>
       </c>
-      <c r="G218" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G218" t="s">
+        <v>46</v>
       </c>
       <c r="H218" s="11">
         <v>24874</v>
@@ -18783,9 +18633,8 @@
       <c r="F219" t="s">
         <v>33</v>
       </c>
-      <c r="G219" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G219" t="s">
+        <v>33</v>
       </c>
       <c r="H219" s="11">
         <v>41272</v>
@@ -18840,9 +18689,8 @@
       <c r="F220" t="s">
         <v>33</v>
       </c>
-      <c r="G220" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G220" t="s">
+        <v>33</v>
       </c>
       <c r="H220" s="11">
         <v>41558</v>
@@ -18894,9 +18742,8 @@
       <c r="F221" t="s">
         <v>33</v>
       </c>
-      <c r="G221" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G221" t="s">
+        <v>33</v>
       </c>
       <c r="H221" s="11">
         <v>34381</v>
@@ -18957,9 +18804,8 @@
       <c r="F222" t="s">
         <v>33</v>
       </c>
-      <c r="G222" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G222" t="s">
+        <v>33</v>
       </c>
       <c r="H222" s="11">
         <v>26534</v>
@@ -19020,9 +18866,8 @@
       <c r="F223" t="s">
         <v>46</v>
       </c>
-      <c r="G223" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G223" t="s">
+        <v>46</v>
       </c>
       <c r="H223" s="11">
         <v>26351</v>
@@ -19083,9 +18928,8 @@
       <c r="F224" t="s">
         <v>33</v>
       </c>
-      <c r="G224" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G224" t="s">
+        <v>33</v>
       </c>
       <c r="H224" s="11">
         <v>40461</v>
@@ -19140,9 +18984,8 @@
       <c r="F225" t="s">
         <v>33</v>
       </c>
-      <c r="G225" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G225" t="s">
+        <v>33</v>
       </c>
       <c r="H225" s="11">
         <v>23991</v>
@@ -19197,9 +19040,8 @@
       <c r="F226" t="s">
         <v>46</v>
       </c>
-      <c r="G226" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G226" t="s">
+        <v>46</v>
       </c>
       <c r="H226" s="11">
         <v>26349</v>
@@ -19257,9 +19099,8 @@
       <c r="F227" t="s">
         <v>33</v>
       </c>
-      <c r="G227" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G227" t="s">
+        <v>33</v>
       </c>
       <c r="H227" s="11">
         <v>32567</v>
@@ -19314,9 +19155,8 @@
       <c r="F228" t="s">
         <v>46</v>
       </c>
-      <c r="G228" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G228" t="s">
+        <v>46</v>
       </c>
       <c r="H228" s="11">
         <v>33108</v>
@@ -19374,9 +19214,8 @@
       <c r="F229" t="s">
         <v>33</v>
       </c>
-      <c r="G229" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G229" t="s">
+        <v>33</v>
       </c>
       <c r="H229" s="11">
         <v>39686</v>
@@ -19425,9 +19264,8 @@
       <c r="F230" t="s">
         <v>33</v>
       </c>
-      <c r="G230" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G230" t="s">
+        <v>33</v>
       </c>
       <c r="H230" s="11">
         <v>21531</v>
@@ -19488,9 +19326,8 @@
       <c r="F231" t="s">
         <v>46</v>
       </c>
-      <c r="G231" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G231" t="s">
+        <v>46</v>
       </c>
       <c r="H231" s="11">
         <v>22947</v>
@@ -19548,9 +19385,8 @@
       <c r="F232" t="s">
         <v>33</v>
       </c>
-      <c r="G232" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G232" t="s">
+        <v>33</v>
       </c>
       <c r="H232" s="11">
         <v>33174</v>
@@ -19605,9 +19441,8 @@
       <c r="F233" t="s">
         <v>33</v>
       </c>
-      <c r="G233" t="str">
-        <f t="shared" si="2"/>
-        <v>male</v>
+      <c r="G233" t="s">
+        <v>33</v>
       </c>
       <c r="H233" s="11">
         <v>32841</v>
@@ -19671,9 +19506,8 @@
       <c r="F234" t="s">
         <v>46</v>
       </c>
-      <c r="G234" t="str">
-        <f t="shared" si="2"/>
-        <v>female</v>
+      <c r="G234" t="s">
+        <v>46</v>
       </c>
       <c r="H234" s="11">
         <v>22563</v>
@@ -19731,9 +19565,8 @@
       <c r="F235" t="s">
         <v>46</v>
       </c>
-      <c r="G235" t="str">
-        <f>F235</f>
-        <v>female</v>
+      <c r="G235" t="s">
+        <v>46</v>
       </c>
       <c r="H235" s="11">
         <v>31616</v>
@@ -19794,9 +19627,8 @@
       <c r="F236" t="s">
         <v>33</v>
       </c>
-      <c r="G236" t="str">
-        <f t="shared" ref="G236:G299" si="3">F236</f>
-        <v>male</v>
+      <c r="G236" t="s">
+        <v>33</v>
       </c>
       <c r="H236" s="11">
         <v>44216</v>
@@ -19845,9 +19677,8 @@
       <c r="F237" t="s">
         <v>33</v>
       </c>
-      <c r="G237" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G237" t="s">
+        <v>33</v>
       </c>
       <c r="H237" s="11">
         <v>42191</v>
@@ -19902,9 +19733,8 @@
       <c r="F238" t="s">
         <v>46</v>
       </c>
-      <c r="G238" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G238" t="s">
+        <v>46</v>
       </c>
       <c r="H238" s="11">
         <v>39954</v>
@@ -19959,9 +19789,8 @@
       <c r="F239" t="s">
         <v>33</v>
       </c>
-      <c r="G239" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G239" t="s">
+        <v>33</v>
       </c>
       <c r="H239" s="11">
         <v>29546</v>
@@ -20022,9 +19851,8 @@
       <c r="F240" t="s">
         <v>46</v>
       </c>
-      <c r="G240" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G240" t="s">
+        <v>46</v>
       </c>
       <c r="H240" s="11">
         <v>30457</v>
@@ -20082,9 +19910,8 @@
       <c r="F241" t="s">
         <v>46</v>
       </c>
-      <c r="G241" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G241" t="s">
+        <v>46</v>
       </c>
       <c r="H241" s="11">
         <v>39314</v>
@@ -20142,9 +19969,8 @@
       <c r="F242" t="s">
         <v>46</v>
       </c>
-      <c r="G242" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G242" t="s">
+        <v>46</v>
       </c>
       <c r="H242" s="11">
         <v>36894</v>
@@ -20205,9 +20031,8 @@
       <c r="F243" t="s">
         <v>33</v>
       </c>
-      <c r="G243" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G243" t="s">
+        <v>33</v>
       </c>
       <c r="H243" s="11">
         <v>24736</v>
@@ -20265,9 +20090,8 @@
       <c r="F244" t="s">
         <v>33</v>
       </c>
-      <c r="G244" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G244" t="s">
+        <v>33</v>
       </c>
       <c r="H244" s="11">
         <v>34964</v>
@@ -20325,9 +20149,8 @@
       <c r="F245" t="s">
         <v>46</v>
       </c>
-      <c r="G245" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G245" t="s">
+        <v>46</v>
       </c>
       <c r="H245" s="11">
         <v>36722</v>
@@ -20385,9 +20208,8 @@
       <c r="F246" t="s">
         <v>46</v>
       </c>
-      <c r="G246" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G246" t="s">
+        <v>46</v>
       </c>
       <c r="H246" s="11">
         <v>43048</v>
@@ -20439,9 +20261,8 @@
       <c r="F247" t="s">
         <v>46</v>
       </c>
-      <c r="G247" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G247" t="s">
+        <v>46</v>
       </c>
       <c r="H247" s="11">
         <v>39794</v>
@@ -20496,9 +20317,8 @@
       <c r="F248" t="s">
         <v>46</v>
       </c>
-      <c r="G248" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G248" t="s">
+        <v>46</v>
       </c>
       <c r="H248" s="11">
         <v>38455</v>
@@ -20550,9 +20370,8 @@
       <c r="F249" t="s">
         <v>33</v>
       </c>
-      <c r="G249" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G249" t="s">
+        <v>33</v>
       </c>
       <c r="H249" s="11">
         <v>45404</v>
@@ -20601,9 +20420,8 @@
       <c r="F250" t="s">
         <v>46</v>
       </c>
-      <c r="G250" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G250" t="s">
+        <v>46</v>
       </c>
       <c r="H250" s="11">
         <v>24564</v>
@@ -20664,9 +20482,8 @@
       <c r="F251" t="s">
         <v>33</v>
       </c>
-      <c r="G251" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G251" t="s">
+        <v>33</v>
       </c>
       <c r="H251" s="11">
         <v>38192</v>
@@ -20724,9 +20541,8 @@
       <c r="F252" t="s">
         <v>33</v>
       </c>
-      <c r="G252" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G252" t="s">
+        <v>33</v>
       </c>
       <c r="H252" s="11">
         <v>25356</v>
@@ -20781,9 +20597,8 @@
       <c r="F253" t="s">
         <v>46</v>
       </c>
-      <c r="G253" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G253" t="s">
+        <v>46</v>
       </c>
       <c r="H253" s="11">
         <v>26989</v>
@@ -20841,9 +20656,8 @@
       <c r="F254" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G254" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G254" t="s">
+        <v>33</v>
       </c>
       <c r="H254" s="11">
         <v>33145</v>
@@ -20901,9 +20715,8 @@
       <c r="F255" t="s">
         <v>46</v>
       </c>
-      <c r="G255" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G255" t="s">
+        <v>46</v>
       </c>
       <c r="H255" s="11">
         <v>41823</v>
@@ -20955,9 +20768,8 @@
       <c r="F256" t="s">
         <v>33</v>
       </c>
-      <c r="G256" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G256" t="s">
+        <v>33</v>
       </c>
       <c r="H256" s="11">
         <v>35258</v>
@@ -21015,9 +20827,8 @@
       <c r="F257" t="s">
         <v>46</v>
       </c>
-      <c r="G257" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G257" t="s">
+        <v>46</v>
       </c>
       <c r="H257" s="11">
         <v>34377</v>
@@ -21075,9 +20886,8 @@
       <c r="F258" t="s">
         <v>33</v>
       </c>
-      <c r="G258" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G258" t="s">
+        <v>33</v>
       </c>
       <c r="H258" s="11">
         <v>41036</v>
@@ -21129,9 +20939,8 @@
       <c r="F259" t="s">
         <v>33</v>
       </c>
-      <c r="G259" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G259" t="s">
+        <v>33</v>
       </c>
       <c r="H259" s="11">
         <v>26694</v>
@@ -21189,9 +20998,8 @@
       <c r="F260" t="s">
         <v>46</v>
       </c>
-      <c r="G260" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G260" t="s">
+        <v>46</v>
       </c>
       <c r="H260" s="11">
         <v>27927</v>
@@ -21252,9 +21060,8 @@
       <c r="F261" t="s">
         <v>33</v>
       </c>
-      <c r="G261" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G261" t="s">
+        <v>33</v>
       </c>
       <c r="H261" s="11">
         <v>34477</v>
@@ -21312,9 +21119,8 @@
       <c r="F262" t="s">
         <v>46</v>
       </c>
-      <c r="G262" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G262" t="s">
+        <v>46</v>
       </c>
       <c r="H262" s="11">
         <v>42170</v>
@@ -21369,9 +21175,8 @@
       <c r="F263" t="s">
         <v>33</v>
       </c>
-      <c r="G263" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G263" t="s">
+        <v>33</v>
       </c>
       <c r="H263" s="11">
         <v>44944</v>
@@ -21417,9 +21222,8 @@
       <c r="F264" t="s">
         <v>46</v>
       </c>
-      <c r="G264" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G264" t="s">
+        <v>46</v>
       </c>
       <c r="H264" s="11">
         <v>34978</v>
@@ -21480,9 +21284,8 @@
       <c r="F265" t="s">
         <v>46</v>
       </c>
-      <c r="G265" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G265" t="s">
+        <v>46</v>
       </c>
       <c r="H265" s="11">
         <v>33428</v>
@@ -21534,9 +21337,8 @@
       <c r="F266" t="s">
         <v>33</v>
       </c>
-      <c r="G266" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G266" t="s">
+        <v>33</v>
       </c>
       <c r="H266" s="11">
         <v>39824</v>
@@ -21585,9 +21387,8 @@
       <c r="F267" t="s">
         <v>46</v>
       </c>
-      <c r="G267" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G267" t="s">
+        <v>46</v>
       </c>
       <c r="H267" s="11">
         <v>40420</v>
@@ -21639,9 +21440,8 @@
       <c r="F268" t="s">
         <v>46</v>
       </c>
-      <c r="G268" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G268" t="s">
+        <v>46</v>
       </c>
       <c r="H268" s="11">
         <v>41150</v>
@@ -21690,9 +21490,8 @@
       <c r="F269" t="s">
         <v>33</v>
       </c>
-      <c r="G269" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G269" t="s">
+        <v>33</v>
       </c>
       <c r="H269" s="11">
         <v>20057</v>
@@ -21747,9 +21546,8 @@
       <c r="F270" t="s">
         <v>46</v>
       </c>
-      <c r="G270" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G270" t="s">
+        <v>46</v>
       </c>
       <c r="H270" s="11">
         <v>25856</v>
@@ -21807,9 +21605,8 @@
       <c r="F271" t="s">
         <v>46</v>
       </c>
-      <c r="G271" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G271" t="s">
+        <v>46</v>
       </c>
       <c r="H271" s="11">
         <v>35709</v>
@@ -21870,9 +21667,8 @@
       <c r="F272" t="s">
         <v>33</v>
       </c>
-      <c r="G272" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G272" t="s">
+        <v>33</v>
       </c>
       <c r="H272" s="11">
         <v>34735</v>
@@ -21927,9 +21723,8 @@
       <c r="F273" t="s">
         <v>46</v>
       </c>
-      <c r="G273" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G273" t="s">
+        <v>46</v>
       </c>
       <c r="H273" s="11">
         <v>35362</v>
@@ -21987,9 +21782,8 @@
       <c r="F274" t="s">
         <v>46</v>
       </c>
-      <c r="G274" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G274" t="s">
+        <v>46</v>
       </c>
       <c r="H274" s="11">
         <v>43775</v>
@@ -22035,9 +21829,8 @@
       <c r="F275" t="s">
         <v>46</v>
       </c>
-      <c r="G275" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G275" t="s">
+        <v>46</v>
       </c>
       <c r="H275" s="11">
         <v>45161</v>
@@ -22083,9 +21876,8 @@
       <c r="F276" t="s">
         <v>46</v>
       </c>
-      <c r="G276" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G276" t="s">
+        <v>46</v>
       </c>
       <c r="H276" s="11">
         <v>45161</v>
@@ -22134,9 +21926,8 @@
       <c r="F277" t="s">
         <v>33</v>
       </c>
-      <c r="G277" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G277" t="s">
+        <v>33</v>
       </c>
       <c r="I277" t="s">
         <v>34</v>
@@ -22188,9 +21979,8 @@
       <c r="F278" t="s">
         <v>46</v>
       </c>
-      <c r="G278" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G278" t="s">
+        <v>46</v>
       </c>
       <c r="I278" t="s">
         <v>34</v>
@@ -22239,9 +22029,8 @@
       <c r="F279" t="s">
         <v>46</v>
       </c>
-      <c r="G279" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G279" t="s">
+        <v>46</v>
       </c>
       <c r="H279" s="11">
         <v>38622</v>
@@ -22296,9 +22085,8 @@
       <c r="F280" t="s">
         <v>46</v>
       </c>
-      <c r="G280" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G280" t="s">
+        <v>46</v>
       </c>
       <c r="H280" s="11">
         <v>37274</v>
@@ -22353,9 +22141,8 @@
       <c r="F281" t="s">
         <v>33</v>
       </c>
-      <c r="G281" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G281" t="s">
+        <v>33</v>
       </c>
       <c r="H281" s="11">
         <v>41221</v>
@@ -22410,9 +22197,8 @@
       <c r="F282" t="s">
         <v>33</v>
       </c>
-      <c r="G282" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G282" t="s">
+        <v>33</v>
       </c>
       <c r="H282" s="11">
         <v>29141</v>
@@ -22470,9 +22256,8 @@
       <c r="F283" t="s">
         <v>46</v>
       </c>
-      <c r="G283" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G283" t="s">
+        <v>46</v>
       </c>
       <c r="H283" s="11">
         <v>30363</v>
@@ -22533,9 +22318,8 @@
       <c r="F284" t="s">
         <v>33</v>
       </c>
-      <c r="G284" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G284" t="s">
+        <v>33</v>
       </c>
       <c r="H284" s="11">
         <v>37705</v>
@@ -22584,9 +22368,8 @@
       <c r="F285" t="s">
         <v>46</v>
       </c>
-      <c r="G285" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G285" t="s">
+        <v>46</v>
       </c>
       <c r="H285" s="11">
         <v>39959</v>
@@ -22638,9 +22421,8 @@
       <c r="F286" t="s">
         <v>33</v>
       </c>
-      <c r="G286" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G286" t="s">
+        <v>33</v>
       </c>
       <c r="H286" s="11">
         <v>32000</v>
@@ -22698,9 +22480,8 @@
       <c r="F287" t="s">
         <v>46</v>
       </c>
-      <c r="G287" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G287" t="s">
+        <v>46</v>
       </c>
       <c r="H287" s="11">
         <v>32669</v>
@@ -22758,9 +22539,8 @@
       <c r="F288" t="s">
         <v>33</v>
       </c>
-      <c r="G288" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G288" t="s">
+        <v>33</v>
       </c>
       <c r="H288" s="11">
         <v>39314</v>
@@ -22812,9 +22592,8 @@
       <c r="F289" t="s">
         <v>46</v>
       </c>
-      <c r="G289" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G289" t="s">
+        <v>46</v>
       </c>
       <c r="H289" s="11">
         <v>43674</v>
@@ -22863,9 +22642,8 @@
       <c r="F290" t="s">
         <v>33</v>
       </c>
-      <c r="G290" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G290" t="s">
+        <v>33</v>
       </c>
       <c r="H290" s="11">
         <v>23042</v>
@@ -22923,9 +22701,8 @@
       <c r="F291" t="s">
         <v>46</v>
       </c>
-      <c r="G291" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G291" t="s">
+        <v>46</v>
       </c>
       <c r="H291" s="11">
         <v>22988</v>
@@ -22983,9 +22760,8 @@
       <c r="F292" t="s">
         <v>33</v>
       </c>
-      <c r="G292" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G292" t="s">
+        <v>33</v>
       </c>
       <c r="H292" s="11">
         <v>32398</v>
@@ -23043,9 +22819,8 @@
       <c r="F293" t="s">
         <v>46</v>
       </c>
-      <c r="G293" s="11" t="str">
-        <f>F293</f>
-        <v>female</v>
+      <c r="G293" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="H293" s="11">
         <v>33086</v>
@@ -23106,9 +22881,8 @@
       <c r="F294" t="s">
         <v>46</v>
       </c>
-      <c r="G294" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G294" t="s">
+        <v>46</v>
       </c>
       <c r="H294" s="11">
         <v>40883</v>
@@ -23160,9 +22934,8 @@
       <c r="F295" t="s">
         <v>33</v>
       </c>
-      <c r="G295" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G295" t="s">
+        <v>33</v>
       </c>
       <c r="H295" s="11">
         <v>43396</v>
@@ -23211,9 +22984,8 @@
       <c r="F296" t="s">
         <v>33</v>
       </c>
-      <c r="G296" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G296" t="s">
+        <v>33</v>
       </c>
       <c r="H296" s="11">
         <v>21226</v>
@@ -23262,9 +23034,8 @@
       <c r="F297" t="s">
         <v>46</v>
       </c>
-      <c r="G297" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G297" t="s">
+        <v>46</v>
       </c>
       <c r="H297" s="11">
         <v>22904</v>
@@ -23313,9 +23084,8 @@
       <c r="F298" t="s">
         <v>33</v>
       </c>
-      <c r="G298" t="str">
-        <f t="shared" si="3"/>
-        <v>male</v>
+      <c r="G298" t="s">
+        <v>33</v>
       </c>
       <c r="H298" s="11">
         <v>32259</v>
@@ -23376,9 +23146,8 @@
       <c r="F299" t="s">
         <v>46</v>
       </c>
-      <c r="G299" t="str">
-        <f t="shared" si="3"/>
-        <v>female</v>
+      <c r="G299" t="s">
+        <v>46</v>
       </c>
       <c r="H299" s="11">
         <v>33255</v>
@@ -23436,9 +23205,8 @@
       <c r="F300" t="s">
         <v>46</v>
       </c>
-      <c r="G300" t="str">
-        <f t="shared" ref="G300:G363" si="4">F300</f>
-        <v>female</v>
+      <c r="G300" t="s">
+        <v>46</v>
       </c>
       <c r="H300" s="11">
         <v>41456</v>
@@ -23490,9 +23258,8 @@
       <c r="F301" t="s">
         <v>33</v>
       </c>
-      <c r="G301" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G301" t="s">
+        <v>33</v>
       </c>
       <c r="H301" s="11">
         <v>42077</v>
@@ -23541,9 +23308,8 @@
       <c r="F302" t="s">
         <v>33</v>
       </c>
-      <c r="G302" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G302" t="s">
+        <v>33</v>
       </c>
       <c r="H302" s="11">
         <v>22828</v>
@@ -23604,9 +23370,8 @@
       <c r="F303" t="s">
         <v>46</v>
       </c>
-      <c r="G303" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G303" t="s">
+        <v>46</v>
       </c>
       <c r="H303" s="11">
         <v>22100</v>
@@ -23664,9 +23429,8 @@
       <c r="F304" t="s">
         <v>46</v>
       </c>
-      <c r="G304" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G304" t="s">
+        <v>46</v>
       </c>
       <c r="H304" s="11">
         <v>14428</v>
@@ -23712,9 +23476,8 @@
       <c r="F305" t="s">
         <v>46</v>
       </c>
-      <c r="G305" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G305" t="s">
+        <v>46</v>
       </c>
       <c r="H305" s="11">
         <v>33426</v>
@@ -23778,9 +23541,8 @@
       <c r="F306" t="s">
         <v>33</v>
       </c>
-      <c r="G306" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G306" t="s">
+        <v>33</v>
       </c>
       <c r="H306" s="11">
         <v>40455</v>
@@ -23832,9 +23594,8 @@
       <c r="F307" t="s">
         <v>46</v>
       </c>
-      <c r="G307" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G307" t="s">
+        <v>46</v>
       </c>
       <c r="H307" s="11">
         <v>40927</v>
@@ -23883,9 +23644,8 @@
       <c r="F308" t="s">
         <v>46</v>
       </c>
-      <c r="G308" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G308" t="s">
+        <v>46</v>
       </c>
       <c r="H308" s="11">
         <v>44221</v>
@@ -23931,9 +23691,8 @@
       <c r="F309" t="s">
         <v>46</v>
       </c>
-      <c r="G309" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G309" t="s">
+        <v>46</v>
       </c>
       <c r="H309" s="11">
         <v>26207</v>
@@ -23994,9 +23753,8 @@
       <c r="F310" t="s">
         <v>33</v>
       </c>
-      <c r="G310" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G310" t="s">
+        <v>33</v>
       </c>
       <c r="H310" s="11">
         <v>25492</v>
@@ -24057,9 +23815,8 @@
       <c r="F311" t="s">
         <v>33</v>
       </c>
-      <c r="G311" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G311" t="s">
+        <v>33</v>
       </c>
       <c r="H311" s="11">
         <v>33890</v>
@@ -24120,9 +23877,8 @@
       <c r="F312" t="s">
         <v>46</v>
       </c>
-      <c r="G312" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G312" t="s">
+        <v>46</v>
       </c>
       <c r="H312" s="11">
         <v>35476</v>
@@ -24183,9 +23939,8 @@
       <c r="F313" t="s">
         <v>46</v>
       </c>
-      <c r="G313" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G313" t="s">
+        <v>46</v>
       </c>
       <c r="H313" s="11">
         <v>42007</v>
@@ -24240,9 +23995,8 @@
       <c r="F314" t="s">
         <v>46</v>
       </c>
-      <c r="G314" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G314" t="s">
+        <v>46</v>
       </c>
       <c r="H314" s="11">
         <v>23316</v>
@@ -24297,9 +24051,8 @@
       <c r="F315" t="s">
         <v>33</v>
       </c>
-      <c r="G315" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G315" t="s">
+        <v>33</v>
       </c>
       <c r="H315" s="11">
         <v>28084</v>
@@ -24351,9 +24104,8 @@
       <c r="F316" t="s">
         <v>46</v>
       </c>
-      <c r="G316" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G316" t="s">
+        <v>46</v>
       </c>
       <c r="H316" s="11">
         <v>40130</v>
@@ -24402,9 +24154,8 @@
       <c r="F317" t="s">
         <v>33</v>
       </c>
-      <c r="G317" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G317" t="s">
+        <v>33</v>
       </c>
       <c r="H317" s="11">
         <v>25945</v>
@@ -24465,9 +24216,8 @@
       <c r="F318" t="s">
         <v>46</v>
       </c>
-      <c r="G318" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G318" t="s">
+        <v>46</v>
       </c>
       <c r="H318" s="11">
         <v>25816</v>
@@ -24525,9 +24275,8 @@
       <c r="F319" t="s">
         <v>46</v>
       </c>
-      <c r="G319" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G319" t="s">
+        <v>46</v>
       </c>
       <c r="H319" s="11">
         <v>33047</v>
@@ -24582,9 +24331,8 @@
       <c r="F320" t="s">
         <v>33</v>
       </c>
-      <c r="G320" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G320" t="s">
+        <v>33</v>
       </c>
       <c r="H320" s="11">
         <v>37821</v>
@@ -24639,9 +24387,8 @@
       <c r="F321" t="s">
         <v>33</v>
       </c>
-      <c r="G321" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G321" t="s">
+        <v>33</v>
       </c>
       <c r="H321" s="11">
         <v>28960</v>
@@ -24702,9 +24449,8 @@
       <c r="F322" t="s">
         <v>46</v>
       </c>
-      <c r="G322" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G322" t="s">
+        <v>46</v>
       </c>
       <c r="H322" s="11">
         <v>29946</v>
@@ -24765,9 +24511,8 @@
       <c r="F323" t="s">
         <v>33</v>
       </c>
-      <c r="G323" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G323" t="s">
+        <v>33</v>
       </c>
       <c r="H323" s="11">
         <v>37639</v>
@@ -24825,9 +24570,8 @@
       <c r="F324" t="s">
         <v>46</v>
       </c>
-      <c r="G324" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G324" t="s">
+        <v>46</v>
       </c>
       <c r="H324" s="11">
         <v>41861</v>
@@ -24888,9 +24632,8 @@
       <c r="F325" t="s">
         <v>33</v>
       </c>
-      <c r="G325" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G325" t="s">
+        <v>33</v>
       </c>
       <c r="H325" s="11">
         <v>28492</v>
@@ -24951,9 +24694,8 @@
       <c r="F326" t="s">
         <v>46</v>
       </c>
-      <c r="G326" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G326" t="s">
+        <v>46</v>
       </c>
       <c r="H326" s="11">
         <v>28965</v>
@@ -25011,9 +24753,8 @@
       <c r="F327" t="s">
         <v>46</v>
       </c>
-      <c r="G327" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G327" t="s">
+        <v>46</v>
       </c>
       <c r="H327" s="11">
         <v>37679</v>
@@ -25062,9 +24803,8 @@
       <c r="F328" t="s">
         <v>46</v>
       </c>
-      <c r="G328" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G328" t="s">
+        <v>46</v>
       </c>
       <c r="H328" s="11">
         <v>39123</v>
@@ -25122,9 +24862,8 @@
       <c r="F329" t="s">
         <v>33</v>
       </c>
-      <c r="G329" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G329" t="s">
+        <v>33</v>
       </c>
       <c r="H329" s="11">
         <v>41499</v>
@@ -25176,9 +24915,8 @@
       <c r="F330" t="s">
         <v>33</v>
       </c>
-      <c r="G330" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G330" t="s">
+        <v>33</v>
       </c>
       <c r="H330" s="11">
         <v>27606</v>
@@ -25239,9 +24977,8 @@
       <c r="F331" t="s">
         <v>46</v>
       </c>
-      <c r="G331" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G331" t="s">
+        <v>46</v>
       </c>
       <c r="H331" s="11">
         <v>28413</v>
@@ -25302,9 +25039,8 @@
       <c r="F332" t="s">
         <v>33</v>
       </c>
-      <c r="G332" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G332" t="s">
+        <v>33</v>
       </c>
       <c r="H332" s="11">
         <v>36886</v>
@@ -25362,9 +25098,8 @@
       <c r="F333" t="s">
         <v>46</v>
       </c>
-      <c r="G333" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G333" t="s">
+        <v>46</v>
       </c>
       <c r="H333" s="11">
         <v>40769</v>
@@ -25416,9 +25151,8 @@
       <c r="F334" t="s">
         <v>46</v>
       </c>
-      <c r="G334" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G334" t="s">
+        <v>46</v>
       </c>
       <c r="H334" s="11">
         <v>37941</v>
@@ -25476,9 +25210,8 @@
       <c r="F335" t="s">
         <v>46</v>
       </c>
-      <c r="G335" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G335" t="s">
+        <v>46</v>
       </c>
       <c r="H335" s="11">
         <v>29817</v>
@@ -25542,9 +25275,8 @@
       <c r="F336" t="s">
         <v>33</v>
       </c>
-      <c r="G336" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G336" t="s">
+        <v>33</v>
       </c>
       <c r="H336" s="11">
         <v>21389</v>
@@ -25602,9 +25334,8 @@
       <c r="F337" t="s">
         <v>46</v>
       </c>
-      <c r="G337" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G337" t="s">
+        <v>46</v>
       </c>
       <c r="H337" s="11">
         <v>19861</v>
@@ -25665,9 +25396,8 @@
       <c r="F338" t="s">
         <v>33</v>
       </c>
-      <c r="G338" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G338" t="s">
+        <v>33</v>
       </c>
       <c r="H338" s="11">
         <v>24457</v>
@@ -25725,9 +25455,8 @@
       <c r="F339" t="s">
         <v>46</v>
       </c>
-      <c r="G339" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G339" t="s">
+        <v>46</v>
       </c>
       <c r="H339" s="11">
         <v>31143</v>
@@ -25785,9 +25514,8 @@
       <c r="F340" t="s">
         <v>33</v>
       </c>
-      <c r="G340" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G340" t="s">
+        <v>33</v>
       </c>
       <c r="H340" s="11">
         <v>38811</v>
@@ -25836,9 +25564,8 @@
       <c r="F341" t="s">
         <v>46</v>
       </c>
-      <c r="G341" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G341" t="s">
+        <v>46</v>
       </c>
       <c r="H341" s="11">
         <v>40459</v>
@@ -25887,9 +25614,8 @@
       <c r="F342" t="s">
         <v>33</v>
       </c>
-      <c r="G342" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G342" t="s">
+        <v>33</v>
       </c>
       <c r="H342" s="11">
         <v>24622</v>
@@ -25938,9 +25664,8 @@
       <c r="F343" t="s">
         <v>46</v>
       </c>
-      <c r="G343" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G343" t="s">
+        <v>46</v>
       </c>
       <c r="H343" s="11">
         <v>25043</v>
@@ -25986,9 +25711,8 @@
       <c r="F344" t="s">
         <v>33</v>
       </c>
-      <c r="G344" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G344" t="s">
+        <v>33</v>
       </c>
       <c r="H344" s="11">
         <v>40757</v>
@@ -26040,9 +25764,8 @@
       <c r="F345" t="s">
         <v>33</v>
       </c>
-      <c r="G345" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G345" t="s">
+        <v>33</v>
       </c>
       <c r="H345" s="11">
         <v>34865</v>
@@ -26097,9 +25820,8 @@
       <c r="F346" t="s">
         <v>46</v>
       </c>
-      <c r="G346" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G346" t="s">
+        <v>46</v>
       </c>
       <c r="H346" s="11">
         <v>35931</v>
@@ -26154,9 +25876,8 @@
       <c r="F347" t="s">
         <v>46</v>
       </c>
-      <c r="G347" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G347" t="s">
+        <v>46</v>
       </c>
       <c r="H347" s="11">
         <v>42567</v>
@@ -26205,9 +25926,8 @@
       <c r="F348" t="s">
         <v>46</v>
       </c>
-      <c r="G348" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G348" t="s">
+        <v>46</v>
       </c>
       <c r="H348" s="11">
         <v>43986</v>
@@ -26253,9 +25973,8 @@
       <c r="F349" t="s">
         <v>46</v>
       </c>
-      <c r="G349" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G349" t="s">
+        <v>46</v>
       </c>
       <c r="H349" s="11">
         <v>20466</v>
@@ -26304,9 +26023,8 @@
       <c r="F350" t="s">
         <v>46</v>
       </c>
-      <c r="G350" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G350" t="s">
+        <v>46</v>
       </c>
       <c r="H350" s="11">
         <v>12928</v>
@@ -26361,9 +26079,8 @@
       <c r="F351" t="s">
         <v>46</v>
       </c>
-      <c r="G351" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G351" t="s">
+        <v>46</v>
       </c>
       <c r="H351" s="11">
         <v>34811</v>
@@ -26418,9 +26135,8 @@
       <c r="F352" t="s">
         <v>33</v>
       </c>
-      <c r="G352" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G352" t="s">
+        <v>33</v>
       </c>
       <c r="H352" s="11">
         <v>33804</v>
@@ -26475,9 +26191,8 @@
       <c r="F353" t="s">
         <v>33</v>
       </c>
-      <c r="G353" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G353" t="s">
+        <v>33</v>
       </c>
       <c r="H353" s="11">
         <v>28742</v>
@@ -26532,9 +26247,8 @@
       <c r="F354" t="s">
         <v>33</v>
       </c>
-      <c r="G354" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G354" t="s">
+        <v>33</v>
       </c>
       <c r="H354" s="11">
         <v>30445</v>
@@ -26589,9 +26303,8 @@
       <c r="F355" t="s">
         <v>33</v>
       </c>
-      <c r="G355" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G355" t="s">
+        <v>33</v>
       </c>
       <c r="H355" s="11">
         <v>38525</v>
@@ -26643,9 +26356,8 @@
       <c r="F356" t="s">
         <v>46</v>
       </c>
-      <c r="G356" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G356" t="s">
+        <v>46</v>
       </c>
       <c r="H356" s="11">
         <v>40598</v>
@@ -26697,9 +26409,8 @@
       <c r="F357" t="s">
         <v>33</v>
       </c>
-      <c r="G357" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G357" t="s">
+        <v>33</v>
       </c>
       <c r="H357" s="11">
         <v>23390</v>
@@ -26754,9 +26465,8 @@
       <c r="F358" t="s">
         <v>46</v>
       </c>
-      <c r="G358" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G358" t="s">
+        <v>46</v>
       </c>
       <c r="H358" s="11">
         <v>24263</v>
@@ -26814,9 +26524,8 @@
       <c r="F359" t="s">
         <v>33</v>
       </c>
-      <c r="G359" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G359" t="s">
+        <v>33</v>
       </c>
       <c r="H359" s="11">
         <v>41024</v>
@@ -26871,9 +26580,8 @@
       <c r="F360" t="s">
         <v>46</v>
       </c>
-      <c r="G360" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G360" t="s">
+        <v>46</v>
       </c>
       <c r="H360" s="11">
         <v>26929</v>
@@ -26934,9 +26642,8 @@
       <c r="F361" t="s">
         <v>33</v>
       </c>
-      <c r="G361" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G361" t="s">
+        <v>33</v>
       </c>
       <c r="H361" s="11">
         <v>35792</v>
@@ -26991,9 +26698,8 @@
       <c r="F362" t="s">
         <v>33</v>
       </c>
-      <c r="G362" t="str">
-        <f t="shared" si="4"/>
-        <v>male</v>
+      <c r="G362" t="s">
+        <v>33</v>
       </c>
       <c r="H362" s="11">
         <v>26120</v>
@@ -27051,9 +26757,8 @@
       <c r="F363" t="s">
         <v>46</v>
       </c>
-      <c r="G363" t="str">
-        <f t="shared" si="4"/>
-        <v>female</v>
+      <c r="G363" t="s">
+        <v>46</v>
       </c>
       <c r="H363" s="11">
         <v>27651</v>
@@ -27108,9 +26813,8 @@
       <c r="F364" t="s">
         <v>33</v>
       </c>
-      <c r="G364" t="str">
-        <f t="shared" ref="G364:G427" si="5">F364</f>
-        <v>male</v>
+      <c r="G364" t="s">
+        <v>33</v>
       </c>
       <c r="H364" s="11">
         <v>21920</v>
@@ -27171,9 +26875,8 @@
       <c r="F365" t="s">
         <v>46</v>
       </c>
-      <c r="G365" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G365" t="s">
+        <v>46</v>
       </c>
       <c r="H365" s="11">
         <v>24323</v>
@@ -27234,9 +26937,8 @@
       <c r="F366" t="s">
         <v>33</v>
       </c>
-      <c r="G366" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G366" t="s">
+        <v>33</v>
       </c>
       <c r="H366" s="11">
         <v>25042</v>
@@ -27291,9 +26993,8 @@
       <c r="F367" t="s">
         <v>46</v>
       </c>
-      <c r="G367" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G367" t="s">
+        <v>46</v>
       </c>
       <c r="H367" s="11">
         <v>25450</v>
@@ -27351,9 +27052,8 @@
       <c r="F368" t="s">
         <v>46</v>
       </c>
-      <c r="G368" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G368" t="s">
+        <v>46</v>
       </c>
       <c r="H368" s="11">
         <v>18196</v>
@@ -27405,9 +27105,8 @@
       <c r="F369" t="s">
         <v>33</v>
       </c>
-      <c r="G369" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G369" t="s">
+        <v>33</v>
       </c>
       <c r="H369" s="11">
         <v>25944</v>
@@ -27468,9 +27167,8 @@
       <c r="F370" t="s">
         <v>46</v>
       </c>
-      <c r="G370" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G370" t="s">
+        <v>46</v>
       </c>
       <c r="H370" s="11">
         <v>25163</v>
@@ -27534,9 +27232,8 @@
       <c r="F371" t="s">
         <v>33</v>
       </c>
-      <c r="G371" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G371" t="s">
+        <v>33</v>
       </c>
       <c r="H371" s="11">
         <v>36450</v>
@@ -27597,9 +27294,8 @@
       <c r="F372" t="s">
         <v>46</v>
       </c>
-      <c r="G372" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G372" t="s">
+        <v>46</v>
       </c>
       <c r="H372" s="11">
         <v>36916</v>
@@ -27660,9 +27356,8 @@
       <c r="F373" t="s">
         <v>46</v>
       </c>
-      <c r="G373" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G373" t="s">
+        <v>46</v>
       </c>
       <c r="H373" s="11">
         <v>44944</v>
@@ -27708,9 +27403,8 @@
       <c r="F374" t="s">
         <v>33</v>
       </c>
-      <c r="G374" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G374" t="s">
+        <v>33</v>
       </c>
       <c r="H374" s="11">
         <v>18120</v>
@@ -27768,9 +27462,8 @@
       <c r="F375" t="s">
         <v>33</v>
       </c>
-      <c r="G375" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G375" t="s">
+        <v>33</v>
       </c>
       <c r="H375" s="11">
         <v>33297</v>
@@ -27831,9 +27524,8 @@
       <c r="F376" t="s">
         <v>46</v>
       </c>
-      <c r="G376" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G376" t="s">
+        <v>46</v>
       </c>
       <c r="H376" s="11">
         <v>31261</v>
@@ -27894,9 +27586,8 @@
       <c r="F377" t="s">
         <v>46</v>
       </c>
-      <c r="G377" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G377" t="s">
+        <v>46</v>
       </c>
       <c r="H377" s="11">
         <v>42178</v>
@@ -27948,9 +27639,8 @@
       <c r="F378" t="s">
         <v>46</v>
       </c>
-      <c r="G378" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G378" t="s">
+        <v>46</v>
       </c>
       <c r="H378" s="11">
         <v>44905</v>
@@ -27996,9 +27686,8 @@
       <c r="F379" t="s">
         <v>33</v>
       </c>
-      <c r="G379" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G379" t="s">
+        <v>33</v>
       </c>
       <c r="H379" s="11">
         <v>19402</v>
@@ -28056,9 +27745,8 @@
       <c r="F380" t="s">
         <v>46</v>
       </c>
-      <c r="G380" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G380" t="s">
+        <v>46</v>
       </c>
       <c r="H380" s="11">
         <v>22289</v>
@@ -28119,9 +27807,8 @@
       <c r="F381" t="s">
         <v>33</v>
       </c>
-      <c r="G381" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G381" t="s">
+        <v>33</v>
       </c>
       <c r="H381" s="11">
         <v>22586</v>
@@ -28176,9 +27863,8 @@
       <c r="F382" t="s">
         <v>46</v>
       </c>
-      <c r="G382" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G382" t="s">
+        <v>46</v>
       </c>
       <c r="H382" s="11">
         <v>25460</v>
@@ -28236,9 +27922,8 @@
       <c r="F383" t="s">
         <v>33</v>
       </c>
-      <c r="G383" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G383" t="s">
+        <v>33</v>
       </c>
       <c r="H383" s="11">
         <v>33958</v>
@@ -28296,9 +27981,8 @@
       <c r="F384" t="s">
         <v>33</v>
       </c>
-      <c r="G384" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G384" t="s">
+        <v>33</v>
       </c>
       <c r="H384" s="11">
         <v>36398</v>
@@ -28356,9 +28040,8 @@
       <c r="F385" t="s">
         <v>33</v>
       </c>
-      <c r="G385" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G385" t="s">
+        <v>33</v>
       </c>
       <c r="H385" s="11">
         <v>20138</v>
@@ -28419,9 +28102,8 @@
       <c r="F386" t="s">
         <v>46</v>
       </c>
-      <c r="G386" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G386" t="s">
+        <v>46</v>
       </c>
       <c r="H386" s="11">
         <v>19557</v>
@@ -28479,9 +28161,8 @@
       <c r="F387" t="s">
         <v>46</v>
       </c>
-      <c r="G387" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G387" t="s">
+        <v>46</v>
       </c>
       <c r="H387" s="11">
         <v>38938</v>
@@ -28536,9 +28217,8 @@
       <c r="F388" t="s">
         <v>33</v>
       </c>
-      <c r="G388" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G388" t="s">
+        <v>33</v>
       </c>
       <c r="H388" s="11">
         <v>28647</v>
@@ -28599,9 +28279,8 @@
       <c r="F389" t="s">
         <v>46</v>
       </c>
-      <c r="G389" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G389" t="s">
+        <v>46</v>
       </c>
       <c r="H389" s="11">
         <v>35437</v>
@@ -28662,9 +28341,8 @@
       <c r="F390" t="s">
         <v>33</v>
       </c>
-      <c r="G390" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G390" t="s">
+        <v>33</v>
       </c>
       <c r="H390" s="11">
         <v>23746</v>
@@ -28725,9 +28403,8 @@
       <c r="F391" t="s">
         <v>46</v>
       </c>
-      <c r="G391" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G391" t="s">
+        <v>46</v>
       </c>
       <c r="H391" s="11">
         <v>25567</v>
@@ -28791,9 +28468,8 @@
       <c r="F392" t="s">
         <v>33</v>
       </c>
-      <c r="G392" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G392" t="s">
+        <v>33</v>
       </c>
       <c r="H392" s="11">
         <v>33619</v>
@@ -28851,9 +28527,8 @@
       <c r="F393" t="s">
         <v>46</v>
       </c>
-      <c r="G393" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G393" t="s">
+        <v>46</v>
       </c>
       <c r="H393" s="11">
         <v>32911</v>
@@ -28914,9 +28589,8 @@
       <c r="F394" t="s">
         <v>46</v>
       </c>
-      <c r="G394" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G394" t="s">
+        <v>46</v>
       </c>
       <c r="H394" s="11">
         <v>44439</v>
@@ -29021,9 +28695,8 @@
       <c r="F396" t="s">
         <v>46</v>
       </c>
-      <c r="G396" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G396" t="s">
+        <v>46</v>
       </c>
       <c r="H396" s="11">
         <v>36187</v>
@@ -29081,9 +28754,8 @@
       <c r="F397" t="s">
         <v>46</v>
       </c>
-      <c r="G397" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G397" t="s">
+        <v>46</v>
       </c>
       <c r="H397" s="11">
         <v>29425</v>
@@ -29141,9 +28813,8 @@
       <c r="F398" t="s">
         <v>33</v>
       </c>
-      <c r="G398" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G398" t="s">
+        <v>33</v>
       </c>
       <c r="H398" s="11">
         <v>38450</v>
@@ -29195,9 +28866,8 @@
       <c r="F399" t="s">
         <v>33</v>
       </c>
-      <c r="G399" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G399" t="s">
+        <v>33</v>
       </c>
       <c r="H399" s="11">
         <v>39723</v>
@@ -29249,9 +28919,8 @@
       <c r="F400" t="s">
         <v>46</v>
       </c>
-      <c r="G400" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G400" t="s">
+        <v>46</v>
       </c>
       <c r="H400" s="11">
         <v>17852</v>
@@ -29312,9 +28981,8 @@
       <c r="F401" t="s">
         <v>33</v>
       </c>
-      <c r="G401" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G401" t="s">
+        <v>33</v>
       </c>
       <c r="H401" s="11">
         <v>32769</v>
@@ -29372,9 +29040,8 @@
       <c r="F402" t="s">
         <v>46</v>
       </c>
-      <c r="G402" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G402" t="s">
+        <v>46</v>
       </c>
       <c r="H402" s="11">
         <v>40191</v>
@@ -29429,9 +29096,8 @@
       <c r="F403" t="s">
         <v>46</v>
       </c>
-      <c r="G403" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G403" t="s">
+        <v>46</v>
       </c>
       <c r="H403" s="11">
         <v>23894</v>
@@ -29486,9 +29152,8 @@
       <c r="F404" t="s">
         <v>33</v>
       </c>
-      <c r="G404" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G404" t="s">
+        <v>33</v>
       </c>
       <c r="H404" s="11">
         <v>34831</v>
@@ -29546,9 +29211,8 @@
       <c r="F405" t="s">
         <v>33</v>
       </c>
-      <c r="G405" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G405" t="s">
+        <v>33</v>
       </c>
       <c r="H405" s="11">
         <v>34205</v>
@@ -29612,9 +29276,8 @@
       <c r="F406" t="s">
         <v>33</v>
       </c>
-      <c r="G406" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G406" t="s">
+        <v>33</v>
       </c>
       <c r="H406" s="11">
         <v>22225</v>
@@ -29675,9 +29338,8 @@
       <c r="F407" t="s">
         <v>46</v>
       </c>
-      <c r="G407" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G407" t="s">
+        <v>46</v>
       </c>
       <c r="H407" s="11">
         <v>39081</v>
@@ -29732,9 +29394,8 @@
       <c r="F408" t="s">
         <v>33</v>
       </c>
-      <c r="G408" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G408" t="s">
+        <v>33</v>
       </c>
       <c r="H408" s="11">
         <v>25139</v>
@@ -29792,9 +29453,8 @@
       <c r="F409" t="s">
         <v>46</v>
       </c>
-      <c r="G409" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G409" t="s">
+        <v>46</v>
       </c>
       <c r="H409" s="11">
         <v>25984</v>
@@ -29852,9 +29512,8 @@
       <c r="F410" t="s">
         <v>33</v>
       </c>
-      <c r="G410" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G410" t="s">
+        <v>33</v>
       </c>
       <c r="H410" s="11">
         <v>34959</v>
@@ -29918,9 +29577,8 @@
       <c r="F411" t="s">
         <v>33</v>
       </c>
-      <c r="G411" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G411" t="s">
+        <v>33</v>
       </c>
       <c r="H411" s="11">
         <v>30066</v>
@@ -29981,9 +29639,8 @@
       <c r="F412" t="s">
         <v>46</v>
       </c>
-      <c r="G412" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G412" t="s">
+        <v>46</v>
       </c>
       <c r="H412" s="11">
         <v>30469</v>
@@ -30047,9 +29704,8 @@
       <c r="F413" t="s">
         <v>33</v>
       </c>
-      <c r="G413" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G413" t="s">
+        <v>33</v>
       </c>
       <c r="H413" s="11">
         <v>44428</v>
@@ -30095,9 +29751,8 @@
       <c r="F414" t="s">
         <v>33</v>
       </c>
-      <c r="G414" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G414" t="s">
+        <v>33</v>
       </c>
       <c r="H414" s="11">
         <v>37769</v>
@@ -30155,9 +29810,8 @@
       <c r="F415" t="s">
         <v>33</v>
       </c>
-      <c r="G415" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G415" t="s">
+        <v>33</v>
       </c>
       <c r="H415" s="11">
         <v>29603</v>
@@ -30215,9 +29869,8 @@
       <c r="F416" t="s">
         <v>46</v>
       </c>
-      <c r="G416" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G416" t="s">
+        <v>46</v>
       </c>
       <c r="H416" s="11">
         <v>28601</v>
@@ -30278,9 +29931,8 @@
       <c r="F417" t="s">
         <v>33</v>
       </c>
-      <c r="G417" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G417" t="s">
+        <v>33</v>
       </c>
       <c r="H417" s="11">
         <v>42536</v>
@@ -30332,9 +29984,8 @@
       <c r="F418" t="s">
         <v>33</v>
       </c>
-      <c r="G418" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G418" t="s">
+        <v>33</v>
       </c>
       <c r="H418" s="11">
         <v>41637</v>
@@ -30386,9 +30037,8 @@
       <c r="F419" t="s">
         <v>33</v>
       </c>
-      <c r="G419" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G419" t="s">
+        <v>33</v>
       </c>
       <c r="H419" s="11">
         <v>28141</v>
@@ -30443,9 +30093,8 @@
       <c r="F420" t="s">
         <v>46</v>
       </c>
-      <c r="G420" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G420" t="s">
+        <v>46</v>
       </c>
       <c r="H420" s="11">
         <v>31089</v>
@@ -30494,9 +30143,8 @@
       <c r="F421" t="s">
         <v>33</v>
       </c>
-      <c r="G421" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G421" t="s">
+        <v>33</v>
       </c>
       <c r="H421" s="11">
         <v>45146</v>
@@ -30542,9 +30190,8 @@
       <c r="F422" t="s">
         <v>46</v>
       </c>
-      <c r="G422" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G422" t="s">
+        <v>46</v>
       </c>
       <c r="H422" s="11">
         <v>13924</v>
@@ -30593,9 +30240,8 @@
       <c r="F423" t="s">
         <v>33</v>
       </c>
-      <c r="G423" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G423" t="s">
+        <v>33</v>
       </c>
       <c r="H423" s="11">
         <v>18878</v>
@@ -30653,9 +30299,8 @@
       <c r="F424" t="s">
         <v>46</v>
       </c>
-      <c r="G424" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G424" t="s">
+        <v>46</v>
       </c>
       <c r="H424" s="11">
         <v>34993</v>
@@ -30716,9 +30361,8 @@
       <c r="F425" t="s">
         <v>46</v>
       </c>
-      <c r="G425" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G425" t="s">
+        <v>46</v>
       </c>
       <c r="H425" s="11">
         <v>24081</v>
@@ -30779,9 +30423,8 @@
       <c r="F426" t="s">
         <v>33</v>
       </c>
-      <c r="G426" t="str">
-        <f t="shared" si="5"/>
-        <v>male</v>
+      <c r="G426" t="s">
+        <v>33</v>
       </c>
       <c r="H426" s="11">
         <v>28585</v>
@@ -30842,9 +30485,8 @@
       <c r="F427" t="s">
         <v>46</v>
       </c>
-      <c r="G427" t="str">
-        <f t="shared" si="5"/>
-        <v>female</v>
+      <c r="G427" t="s">
+        <v>46</v>
       </c>
       <c r="H427" s="11">
         <v>27117</v>
@@ -30905,9 +30547,8 @@
       <c r="F428" t="s">
         <v>46</v>
       </c>
-      <c r="G428" t="str">
-        <f t="shared" ref="G428:G440" si="6">F428</f>
-        <v>female</v>
+      <c r="G428" t="s">
+        <v>46</v>
       </c>
       <c r="H428" s="11">
         <v>38606</v>
@@ -30962,9 +30603,8 @@
       <c r="F429" t="s">
         <v>33</v>
       </c>
-      <c r="G429" t="str">
-        <f t="shared" si="6"/>
-        <v>male</v>
+      <c r="G429" t="s">
+        <v>33</v>
       </c>
       <c r="H429" s="11">
         <v>39339</v>
@@ -31019,9 +30659,8 @@
       <c r="F430" t="s">
         <v>46</v>
       </c>
-      <c r="G430" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G430" t="s">
+        <v>46</v>
       </c>
       <c r="I430" t="s">
         <v>34</v>
@@ -31076,9 +30715,8 @@
       <c r="F431" t="s">
         <v>46</v>
       </c>
-      <c r="G431" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G431" t="s">
+        <v>46</v>
       </c>
       <c r="H431" s="11">
         <v>37936</v>
@@ -31130,9 +30768,8 @@
       <c r="F432" t="s">
         <v>33</v>
       </c>
-      <c r="G432" t="str">
-        <f t="shared" si="6"/>
-        <v>male</v>
+      <c r="G432" t="s">
+        <v>33</v>
       </c>
       <c r="H432" s="11">
         <v>38743</v>
@@ -31184,9 +30821,8 @@
       <c r="F433" t="s">
         <v>33</v>
       </c>
-      <c r="G433" t="str">
-        <f t="shared" si="6"/>
-        <v>male</v>
+      <c r="G433" t="s">
+        <v>33</v>
       </c>
       <c r="H433" s="11">
         <v>29610</v>
@@ -31244,9 +30880,8 @@
       <c r="F434" t="s">
         <v>46</v>
       </c>
-      <c r="G434" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G434" t="s">
+        <v>46</v>
       </c>
       <c r="H434" s="11">
         <v>31825</v>
@@ -31304,9 +30939,8 @@
       <c r="F435" t="s">
         <v>46</v>
       </c>
-      <c r="G435" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G435" t="s">
+        <v>46</v>
       </c>
       <c r="H435" s="11">
         <v>40160</v>
@@ -31358,9 +30992,8 @@
       <c r="F436" t="s">
         <v>46</v>
       </c>
-      <c r="G436" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G436" t="s">
+        <v>46</v>
       </c>
       <c r="H436" s="11">
         <v>42242</v>
@@ -31409,9 +31042,8 @@
       <c r="F437" t="s">
         <v>33</v>
       </c>
-      <c r="G437" t="str">
-        <f t="shared" si="6"/>
-        <v>male</v>
+      <c r="G437" t="s">
+        <v>33</v>
       </c>
       <c r="H437" s="11">
         <v>26540</v>
@@ -31463,9 +31095,8 @@
       <c r="F438" t="s">
         <v>46</v>
       </c>
-      <c r="G438" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G438" t="s">
+        <v>46</v>
       </c>
       <c r="H438" s="11">
         <v>30538</v>
@@ -31523,9 +31154,8 @@
       <c r="F439" t="s">
         <v>46</v>
       </c>
-      <c r="G439" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G439" t="s">
+        <v>46</v>
       </c>
       <c r="H439" s="11">
         <v>37744</v>
@@ -31577,9 +31207,8 @@
       <c r="F440" t="s">
         <v>46</v>
       </c>
-      <c r="G440" t="str">
-        <f t="shared" si="6"/>
-        <v>female</v>
+      <c r="G440" t="s">
+        <v>46</v>
       </c>
       <c r="H440" s="11">
         <v>40469</v>
@@ -48116,10 +47745,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J441:J472" xr:uid="{DD7D82EE-BDFD-4B2D-BAD4-C286797A732C}">
       <formula1>"single,married,widowed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G441:G450 G454:G460 G463:G470 G473:G478 G481:G482 G485:G486 G489 G492:G496 G511:G513 G518 G535 G544 G556:G569 G571:G582 G585:G615 G618:G620 G625:G646 G649:G680 G683:G730" xr:uid="{717DF7AE-691E-4771-92C7-12B3751BFD9E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G441:G450 G454:G460 G463:G470 G473:G478 G481:G482 G485:G486 G489 G492:G496 G511:G513 G518 G535 G544 G556:G569 G571:G582 G585:G615 G618:G620 G625:G646 G649:G680 G683:G730" xr:uid="{E30B6F96-9207-4F7E-8F4B-A4B0AB5C354C}">
       <formula1>"male,female,lgbtq"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G451:G453 G461:G462 G471:G472 G479:G480 G483:G484 G487:G488 G497:G510 G490:G491 G514:G517 G519:G534 G536:G543 G545:G555 G570 G583:G584 G616:G617 G621:G624 G647:G648 G681:G682 F441:F732" xr:uid="{5DCD2D3E-D299-4ECD-9255-0A0A103C9FDC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F441:F732 G451:G453 G461:G462 G471:G472 G479:G480 G483:G484 G487:G488 G497:G510 G490:G491 G514:G517 G519:G534 G536:G543 G545:G555 G570 G583:G584 G616:G617 G621:G624 G647:G648 G681:G682" xr:uid="{5DCD2D3E-D299-4ECD-9255-0A0A103C9FDC}">
       <formula1>"male,female"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W441" xr:uid="{E9D293B3-A371-4C5C-A227-FDA139B1F049}">

--- a/database/seeders/data/residents.xlsx
+++ b/database/seeders/data/residents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Laravel-11\bims-capstone2\database\seeders\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188F88E5-62D7-440B-8A04-8DC34A926202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984488D9-89C8-4BF0-BE80-4018EBE8E89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6190,9 +6190,9 @@
   <dimension ref="A1:AD732"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="G172" sqref="G172"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13431,7 +13431,7 @@
       <c r="A128" t="s">
         <v>404</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>385</v>
       </c>
       <c r="F128" t="s">
